--- a/xlsx/法國_intext.xlsx
+++ b/xlsx/法國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4707">
   <si>
     <t>法國</t>
   </si>
@@ -29,7 +29,7 @@
     <t>法語</t>
   </si>
   <si>
-    <t>政策_政策_行政_法國</t>
+    <t>体育运动_体育运动_奥林匹克运动会_法國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -6884,12 +6884,6 @@
     <t>亨利·马蒂斯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E5%88%97%C2%B7%E5%BE%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>安德列·德兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E5%BC%97%E6%8B%89%E8%8A%92%E5%85%8B</t>
   </si>
   <si>
@@ -11846,336 +11840,372 @@
     <t>克利珀頓島</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
   </si>
   <si>
@@ -13992,12 +14022,6 @@
   </si>
   <si>
     <t>盧森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
@@ -14460,7 +14484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14688,7 +14712,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -31160,7 +31184,7 @@
         <v>1092</v>
       </c>
       <c r="G576" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -31421,7 +31445,7 @@
         <v>1108</v>
       </c>
       <c r="G585" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H585" t="s">
         <v>4</v>
@@ -49801,10 +49825,10 @@
         <v>1218</v>
       </c>
       <c r="E1219" t="s">
-        <v>2305</v>
+        <v>1629</v>
       </c>
       <c r="F1219" t="s">
-        <v>2306</v>
+        <v>1630</v>
       </c>
       <c r="G1219" t="n">
         <v>1</v>
@@ -49830,10 +49854,10 @@
         <v>1219</v>
       </c>
       <c r="E1220" t="s">
-        <v>1629</v>
+        <v>2305</v>
       </c>
       <c r="F1220" t="s">
-        <v>1630</v>
+        <v>2306</v>
       </c>
       <c r="G1220" t="n">
         <v>1</v>
@@ -50184,7 +50208,7 @@
         <v>2330</v>
       </c>
       <c r="G1232" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H1232" t="s">
         <v>4</v>
@@ -50213,7 +50237,7 @@
         <v>2332</v>
       </c>
       <c r="G1233" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1233" t="s">
         <v>4</v>
@@ -50561,7 +50585,7 @@
         <v>2356</v>
       </c>
       <c r="G1245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1245" t="s">
         <v>4</v>
@@ -50590,7 +50614,7 @@
         <v>2358</v>
       </c>
       <c r="G1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1246" t="s">
         <v>4</v>
@@ -50758,13 +50782,13 @@
         <v>1251</v>
       </c>
       <c r="E1252" t="s">
-        <v>2369</v>
+        <v>637</v>
       </c>
       <c r="F1252" t="s">
-        <v>2370</v>
+        <v>638</v>
       </c>
       <c r="G1252" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1252" t="s">
         <v>4</v>
@@ -50787,13 +50811,13 @@
         <v>1252</v>
       </c>
       <c r="E1253" t="s">
-        <v>637</v>
+        <v>2369</v>
       </c>
       <c r="F1253" t="s">
-        <v>638</v>
+        <v>2370</v>
       </c>
       <c r="G1253" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1253" t="s">
         <v>4</v>
@@ -50903,13 +50927,13 @@
         <v>1256</v>
       </c>
       <c r="E1257" t="s">
-        <v>2377</v>
+        <v>645</v>
       </c>
       <c r="F1257" t="s">
-        <v>2378</v>
+        <v>646</v>
       </c>
       <c r="G1257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1257" t="s">
         <v>4</v>
@@ -50932,13 +50956,13 @@
         <v>1257</v>
       </c>
       <c r="E1258" t="s">
-        <v>645</v>
+        <v>2377</v>
       </c>
       <c r="F1258" t="s">
-        <v>646</v>
+        <v>2378</v>
       </c>
       <c r="G1258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1258" t="s">
         <v>4</v>
@@ -50967,7 +50991,7 @@
         <v>2380</v>
       </c>
       <c r="G1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1259" t="s">
         <v>4</v>
@@ -51199,7 +51223,7 @@
         <v>2396</v>
       </c>
       <c r="G1267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1267" t="s">
         <v>4</v>
@@ -51228,7 +51252,7 @@
         <v>2398</v>
       </c>
       <c r="G1268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1268" t="s">
         <v>4</v>
@@ -51257,7 +51281,7 @@
         <v>2400</v>
       </c>
       <c r="G1269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1269" t="s">
         <v>4</v>
@@ -51460,7 +51484,7 @@
         <v>2414</v>
       </c>
       <c r="G1276" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1276" t="s">
         <v>4</v>
@@ -51489,7 +51513,7 @@
         <v>2416</v>
       </c>
       <c r="G1277" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1277" t="s">
         <v>4</v>
@@ -51721,7 +51745,7 @@
         <v>2432</v>
       </c>
       <c r="G1285" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1285" t="s">
         <v>4</v>
@@ -51750,7 +51774,7 @@
         <v>2434</v>
       </c>
       <c r="G1286" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1286" t="s">
         <v>4</v>
@@ -51779,7 +51803,7 @@
         <v>2436</v>
       </c>
       <c r="G1287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1287" t="s">
         <v>4</v>
@@ -51808,7 +51832,7 @@
         <v>2438</v>
       </c>
       <c r="G1288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1288" t="s">
         <v>4</v>
@@ -51837,7 +51861,7 @@
         <v>2440</v>
       </c>
       <c r="G1289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1289" t="s">
         <v>4</v>
@@ -51866,7 +51890,7 @@
         <v>2442</v>
       </c>
       <c r="G1290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1290" t="s">
         <v>4</v>
@@ -52069,7 +52093,7 @@
         <v>2456</v>
       </c>
       <c r="G1297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1297" t="s">
         <v>4</v>
@@ -52098,7 +52122,7 @@
         <v>2458</v>
       </c>
       <c r="G1298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1298" t="s">
         <v>4</v>
@@ -52127,7 +52151,7 @@
         <v>2460</v>
       </c>
       <c r="G1299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1299" t="s">
         <v>4</v>
@@ -52185,7 +52209,7 @@
         <v>2464</v>
       </c>
       <c r="G1301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1301" t="s">
         <v>4</v>
@@ -52446,7 +52470,7 @@
         <v>2482</v>
       </c>
       <c r="G1310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1310" t="s">
         <v>4</v>
@@ -52585,13 +52609,13 @@
         <v>1314</v>
       </c>
       <c r="E1315" t="s">
-        <v>2491</v>
+        <v>1817</v>
       </c>
       <c r="F1315" t="s">
-        <v>2492</v>
+        <v>1818</v>
       </c>
       <c r="G1315" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1315" t="s">
         <v>4</v>
@@ -52614,13 +52638,13 @@
         <v>1315</v>
       </c>
       <c r="E1316" t="s">
-        <v>1817</v>
+        <v>2491</v>
       </c>
       <c r="F1316" t="s">
-        <v>1818</v>
+        <v>2492</v>
       </c>
       <c r="G1316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1316" t="s">
         <v>4</v>
@@ -53780,7 +53804,7 @@
         <v>2572</v>
       </c>
       <c r="G1356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1356" t="s">
         <v>4</v>
@@ -53809,7 +53833,7 @@
         <v>2574</v>
       </c>
       <c r="G1357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1357" t="s">
         <v>4</v>
@@ -53954,7 +53978,7 @@
         <v>2584</v>
       </c>
       <c r="G1362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1362" t="s">
         <v>4</v>
@@ -53983,7 +54007,7 @@
         <v>2586</v>
       </c>
       <c r="G1363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1363" t="s">
         <v>4</v>
@@ -54441,10 +54465,10 @@
         <v>1378</v>
       </c>
       <c r="E1379" t="s">
-        <v>2617</v>
+        <v>387</v>
       </c>
       <c r="F1379" t="s">
-        <v>2618</v>
+        <v>388</v>
       </c>
       <c r="G1379" t="n">
         <v>1</v>
@@ -54470,10 +54494,10 @@
         <v>1379</v>
       </c>
       <c r="E1380" t="s">
-        <v>387</v>
+        <v>2617</v>
       </c>
       <c r="F1380" t="s">
-        <v>388</v>
+        <v>2618</v>
       </c>
       <c r="G1380" t="n">
         <v>1</v>
@@ -54563,7 +54587,7 @@
         <v>2624</v>
       </c>
       <c r="G1383" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1383" t="s">
         <v>4</v>
@@ -54592,7 +54616,7 @@
         <v>2626</v>
       </c>
       <c r="G1384" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1384" t="s">
         <v>4</v>
@@ -54708,7 +54732,7 @@
         <v>2634</v>
       </c>
       <c r="G1388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1388" t="s">
         <v>4</v>
@@ -54737,7 +54761,7 @@
         <v>2636</v>
       </c>
       <c r="G1389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1389" t="s">
         <v>4</v>
@@ -54876,13 +54900,13 @@
         <v>1393</v>
       </c>
       <c r="E1394" t="s">
-        <v>2645</v>
+        <v>2629</v>
       </c>
       <c r="F1394" t="s">
-        <v>2646</v>
+        <v>2630</v>
       </c>
       <c r="G1394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1394" t="s">
         <v>4</v>
@@ -54905,13 +54929,13 @@
         <v>1394</v>
       </c>
       <c r="E1395" t="s">
-        <v>2631</v>
+        <v>2645</v>
       </c>
       <c r="F1395" t="s">
-        <v>2632</v>
+        <v>2646</v>
       </c>
       <c r="G1395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1395" t="s">
         <v>4</v>
@@ -55404,7 +55428,7 @@
         <v>2680</v>
       </c>
       <c r="G1412" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1412" t="s">
         <v>4</v>
@@ -55433,7 +55457,7 @@
         <v>2682</v>
       </c>
       <c r="G1413" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1413" t="s">
         <v>4</v>
@@ -55462,7 +55486,7 @@
         <v>2684</v>
       </c>
       <c r="G1414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1414" t="s">
         <v>4</v>
@@ -57144,7 +57168,7 @@
         <v>2800</v>
       </c>
       <c r="G1472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1472" t="s">
         <v>4</v>
@@ -57173,7 +57197,7 @@
         <v>2802</v>
       </c>
       <c r="G1473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1473" t="s">
         <v>4</v>
@@ -57202,7 +57226,7 @@
         <v>2804</v>
       </c>
       <c r="G1474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1474" t="s">
         <v>4</v>
@@ -57231,7 +57255,7 @@
         <v>2806</v>
       </c>
       <c r="G1475" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1475" t="s">
         <v>4</v>
@@ -57260,7 +57284,7 @@
         <v>2808</v>
       </c>
       <c r="G1476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1476" t="s">
         <v>4</v>
@@ -57289,7 +57313,7 @@
         <v>2810</v>
       </c>
       <c r="G1477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1477" t="s">
         <v>4</v>
@@ -57405,7 +57429,7 @@
         <v>2818</v>
       </c>
       <c r="G1481" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1481" t="s">
         <v>4</v>
@@ -57434,7 +57458,7 @@
         <v>2820</v>
       </c>
       <c r="G1482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1482" t="s">
         <v>4</v>
@@ -57463,7 +57487,7 @@
         <v>2822</v>
       </c>
       <c r="G1483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1483" t="s">
         <v>4</v>
@@ -57492,7 +57516,7 @@
         <v>2824</v>
       </c>
       <c r="G1484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1484" t="s">
         <v>4</v>
@@ -57521,7 +57545,7 @@
         <v>2826</v>
       </c>
       <c r="G1485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1485" t="s">
         <v>4</v>
@@ -57724,7 +57748,7 @@
         <v>2840</v>
       </c>
       <c r="G1492" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1492" t="s">
         <v>4</v>
@@ -57753,7 +57777,7 @@
         <v>2842</v>
       </c>
       <c r="G1493" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1493" t="s">
         <v>4</v>
@@ -58362,7 +58386,7 @@
         <v>2884</v>
       </c>
       <c r="G1514" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1514" t="s">
         <v>4</v>
@@ -58391,7 +58415,7 @@
         <v>2886</v>
       </c>
       <c r="G1515" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H1515" t="s">
         <v>4</v>
@@ -58420,7 +58444,7 @@
         <v>2888</v>
       </c>
       <c r="G1516" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1516" t="s">
         <v>4</v>
@@ -58449,7 +58473,7 @@
         <v>2890</v>
       </c>
       <c r="G1517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1517" t="s">
         <v>4</v>
@@ -58478,7 +58502,7 @@
         <v>2892</v>
       </c>
       <c r="G1518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1518" t="s">
         <v>4</v>
@@ -58507,7 +58531,7 @@
         <v>2894</v>
       </c>
       <c r="G1519" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H1519" t="s">
         <v>4</v>
@@ -58536,7 +58560,7 @@
         <v>2896</v>
       </c>
       <c r="G1520" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H1520" t="s">
         <v>4</v>
@@ -58565,7 +58589,7 @@
         <v>2898</v>
       </c>
       <c r="G1521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1521" t="s">
         <v>4</v>
@@ -58623,7 +58647,7 @@
         <v>2902</v>
       </c>
       <c r="G1523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1523" t="s">
         <v>4</v>
@@ -58652,7 +58676,7 @@
         <v>2904</v>
       </c>
       <c r="G1524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1524" t="s">
         <v>4</v>
@@ -58855,7 +58879,7 @@
         <v>2918</v>
       </c>
       <c r="G1531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1531" t="s">
         <v>4</v>
@@ -58913,7 +58937,7 @@
         <v>2922</v>
       </c>
       <c r="G1533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1533" t="s">
         <v>4</v>
@@ -59087,7 +59111,7 @@
         <v>2934</v>
       </c>
       <c r="G1539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1539" t="s">
         <v>4</v>
@@ -59116,7 +59140,7 @@
         <v>2936</v>
       </c>
       <c r="G1540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1540" t="s">
         <v>4</v>
@@ -59319,7 +59343,7 @@
         <v>2950</v>
       </c>
       <c r="G1547" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1547" t="s">
         <v>4</v>
@@ -59348,7 +59372,7 @@
         <v>2952</v>
       </c>
       <c r="G1548" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1548" t="s">
         <v>4</v>
@@ -60595,7 +60619,7 @@
         <v>3038</v>
       </c>
       <c r="G1591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1591" t="s">
         <v>4</v>
@@ -60624,7 +60648,7 @@
         <v>3040</v>
       </c>
       <c r="G1592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1592" t="s">
         <v>4</v>
@@ -60711,7 +60735,7 @@
         <v>3046</v>
       </c>
       <c r="G1595" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1595" t="s">
         <v>4</v>
@@ -60740,7 +60764,7 @@
         <v>3048</v>
       </c>
       <c r="G1596" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1596" t="s">
         <v>4</v>
@@ -61204,7 +61228,7 @@
         <v>3080</v>
       </c>
       <c r="G1612" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1612" t="s">
         <v>4</v>
@@ -61233,7 +61257,7 @@
         <v>3082</v>
       </c>
       <c r="G1613" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1613" t="s">
         <v>4</v>
@@ -61320,7 +61344,7 @@
         <v>3088</v>
       </c>
       <c r="G1616" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1616" t="s">
         <v>4</v>
@@ -61349,7 +61373,7 @@
         <v>3090</v>
       </c>
       <c r="G1617" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1617" t="s">
         <v>4</v>
@@ -61407,7 +61431,7 @@
         <v>3094</v>
       </c>
       <c r="G1619" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1619" t="s">
         <v>4</v>
@@ -61436,7 +61460,7 @@
         <v>3096</v>
       </c>
       <c r="G1620" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1620" t="s">
         <v>4</v>
@@ -61494,7 +61518,7 @@
         <v>3100</v>
       </c>
       <c r="G1622" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1622" t="s">
         <v>4</v>
@@ -61523,7 +61547,7 @@
         <v>3102</v>
       </c>
       <c r="G1623" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1623" t="s">
         <v>4</v>
@@ -61552,7 +61576,7 @@
         <v>3104</v>
       </c>
       <c r="G1624" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1624" t="s">
         <v>4</v>
@@ -61581,7 +61605,7 @@
         <v>3106</v>
       </c>
       <c r="G1625" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1625" t="s">
         <v>4</v>
@@ -61668,7 +61692,7 @@
         <v>3112</v>
       </c>
       <c r="G1628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1628" t="s">
         <v>4</v>
@@ -61697,7 +61721,7 @@
         <v>3114</v>
       </c>
       <c r="G1629" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1629" t="s">
         <v>4</v>
@@ -61726,7 +61750,7 @@
         <v>3116</v>
       </c>
       <c r="G1630" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1630" t="s">
         <v>4</v>
@@ -61755,7 +61779,7 @@
         <v>3118</v>
       </c>
       <c r="G1631" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1631" t="s">
         <v>4</v>
@@ -61784,7 +61808,7 @@
         <v>3120</v>
       </c>
       <c r="G1632" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1632" t="s">
         <v>4</v>
@@ -61842,7 +61866,7 @@
         <v>3124</v>
       </c>
       <c r="G1634" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1634" t="s">
         <v>4</v>
@@ -61871,7 +61895,7 @@
         <v>3126</v>
       </c>
       <c r="G1635" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1635" t="s">
         <v>4</v>
@@ -61900,7 +61924,7 @@
         <v>3128</v>
       </c>
       <c r="G1636" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1636" t="s">
         <v>4</v>
@@ -61929,7 +61953,7 @@
         <v>3130</v>
       </c>
       <c r="G1637" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1637" t="s">
         <v>4</v>
@@ -61958,7 +61982,7 @@
         <v>3132</v>
       </c>
       <c r="G1638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1638" t="s">
         <v>4</v>
@@ -61981,10 +62005,10 @@
         <v>1638</v>
       </c>
       <c r="E1639" t="s">
-        <v>3133</v>
+        <v>789</v>
       </c>
       <c r="F1639" t="s">
-        <v>3134</v>
+        <v>790</v>
       </c>
       <c r="G1639" t="n">
         <v>1</v>
@@ -62010,10 +62034,10 @@
         <v>1639</v>
       </c>
       <c r="E1640" t="s">
-        <v>789</v>
+        <v>3133</v>
       </c>
       <c r="F1640" t="s">
-        <v>790</v>
+        <v>3134</v>
       </c>
       <c r="G1640" t="n">
         <v>1</v>
@@ -62248,7 +62272,7 @@
         <v>3150</v>
       </c>
       <c r="G1648" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1648" t="s">
         <v>4</v>
@@ -62277,7 +62301,7 @@
         <v>3152</v>
       </c>
       <c r="G1649" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1649" t="s">
         <v>4</v>
@@ -62306,7 +62330,7 @@
         <v>3154</v>
       </c>
       <c r="G1650" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1650" t="s">
         <v>4</v>
@@ -62364,7 +62388,7 @@
         <v>3158</v>
       </c>
       <c r="G1652" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1652" t="s">
         <v>4</v>
@@ -62393,7 +62417,7 @@
         <v>3160</v>
       </c>
       <c r="G1653" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1653" t="s">
         <v>4</v>
@@ -62538,7 +62562,7 @@
         <v>3170</v>
       </c>
       <c r="G1658" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1658" t="s">
         <v>4</v>
@@ -62567,7 +62591,7 @@
         <v>3172</v>
       </c>
       <c r="G1659" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1659" t="s">
         <v>4</v>
@@ -62596,7 +62620,7 @@
         <v>3174</v>
       </c>
       <c r="G1660" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1660" t="s">
         <v>4</v>
@@ -62625,7 +62649,7 @@
         <v>3176</v>
       </c>
       <c r="G1661" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1661" t="s">
         <v>4</v>
@@ -62712,7 +62736,7 @@
         <v>3182</v>
       </c>
       <c r="G1664" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1664" t="s">
         <v>4</v>
@@ -62741,7 +62765,7 @@
         <v>3184</v>
       </c>
       <c r="G1665" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1665" t="s">
         <v>4</v>
@@ -62799,7 +62823,7 @@
         <v>3188</v>
       </c>
       <c r="G1667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1667" t="s">
         <v>4</v>
@@ -62828,7 +62852,7 @@
         <v>3190</v>
       </c>
       <c r="G1668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1668" t="s">
         <v>4</v>
@@ -62886,7 +62910,7 @@
         <v>3194</v>
       </c>
       <c r="G1670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1670" t="s">
         <v>4</v>
@@ -62915,7 +62939,7 @@
         <v>3196</v>
       </c>
       <c r="G1671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1671" t="s">
         <v>4</v>
@@ -62973,7 +62997,7 @@
         <v>3200</v>
       </c>
       <c r="G1673" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1673" t="s">
         <v>4</v>
@@ -63002,7 +63026,7 @@
         <v>3202</v>
       </c>
       <c r="G1674" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H1674" t="s">
         <v>4</v>
@@ -63031,7 +63055,7 @@
         <v>3204</v>
       </c>
       <c r="G1675" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H1675" t="s">
         <v>4</v>
@@ -63060,7 +63084,7 @@
         <v>3206</v>
       </c>
       <c r="G1676" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1676" t="s">
         <v>4</v>
@@ -63089,7 +63113,7 @@
         <v>3208</v>
       </c>
       <c r="G1677" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1677" t="s">
         <v>4</v>
@@ -63118,7 +63142,7 @@
         <v>3210</v>
       </c>
       <c r="G1678" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1678" t="s">
         <v>4</v>
@@ -63234,7 +63258,7 @@
         <v>3218</v>
       </c>
       <c r="G1682" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1682" t="s">
         <v>4</v>
@@ -63263,7 +63287,7 @@
         <v>3220</v>
       </c>
       <c r="G1683" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1683" t="s">
         <v>4</v>
@@ -63379,7 +63403,7 @@
         <v>3228</v>
       </c>
       <c r="G1687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1687" t="s">
         <v>4</v>
@@ -63437,7 +63461,7 @@
         <v>3232</v>
       </c>
       <c r="G1689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1689" t="s">
         <v>4</v>
@@ -63466,7 +63490,7 @@
         <v>3234</v>
       </c>
       <c r="G1690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1690" t="s">
         <v>4</v>
@@ -63495,7 +63519,7 @@
         <v>3236</v>
       </c>
       <c r="G1691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1691" t="s">
         <v>4</v>
@@ -63669,7 +63693,7 @@
         <v>3248</v>
       </c>
       <c r="G1697" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1697" t="s">
         <v>4</v>
@@ -63692,10 +63716,10 @@
         <v>1697</v>
       </c>
       <c r="E1698" t="s">
-        <v>3249</v>
+        <v>1025</v>
       </c>
       <c r="F1698" t="s">
-        <v>3250</v>
+        <v>1026</v>
       </c>
       <c r="G1698" t="n">
         <v>2</v>
@@ -63721,13 +63745,13 @@
         <v>1698</v>
       </c>
       <c r="E1699" t="s">
-        <v>1025</v>
+        <v>1541</v>
       </c>
       <c r="F1699" t="s">
-        <v>1026</v>
+        <v>1542</v>
       </c>
       <c r="G1699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1699" t="s">
         <v>4</v>
@@ -63750,10 +63774,10 @@
         <v>1699</v>
       </c>
       <c r="E1700" t="s">
-        <v>1541</v>
+        <v>3249</v>
       </c>
       <c r="F1700" t="s">
-        <v>1542</v>
+        <v>3250</v>
       </c>
       <c r="G1700" t="n">
         <v>1</v>
@@ -63814,7 +63838,7 @@
         <v>3254</v>
       </c>
       <c r="G1702" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1702" t="s">
         <v>4</v>
@@ -63843,7 +63867,7 @@
         <v>3256</v>
       </c>
       <c r="G1703" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1703" t="s">
         <v>4</v>
@@ -64046,7 +64070,7 @@
         <v>3270</v>
       </c>
       <c r="G1710" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1710" t="s">
         <v>4</v>
@@ -64075,7 +64099,7 @@
         <v>3272</v>
       </c>
       <c r="G1711" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1711" t="s">
         <v>4</v>
@@ -64104,7 +64128,7 @@
         <v>3274</v>
       </c>
       <c r="G1712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1712" t="s">
         <v>4</v>
@@ -64133,7 +64157,7 @@
         <v>3276</v>
       </c>
       <c r="G1713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1713" t="s">
         <v>4</v>
@@ -64191,7 +64215,7 @@
         <v>3280</v>
       </c>
       <c r="G1715" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1715" t="s">
         <v>4</v>
@@ -64220,7 +64244,7 @@
         <v>3282</v>
       </c>
       <c r="G1716" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1716" t="s">
         <v>4</v>
@@ -64249,7 +64273,7 @@
         <v>3284</v>
       </c>
       <c r="G1717" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1717" t="s">
         <v>4</v>
@@ -64278,7 +64302,7 @@
         <v>3286</v>
       </c>
       <c r="G1718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1718" t="s">
         <v>4</v>
@@ -64394,7 +64418,7 @@
         <v>3294</v>
       </c>
       <c r="G1722" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1722" t="s">
         <v>4</v>
@@ -64423,7 +64447,7 @@
         <v>3296</v>
       </c>
       <c r="G1723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1723" t="s">
         <v>4</v>
@@ -64452,7 +64476,7 @@
         <v>3298</v>
       </c>
       <c r="G1724" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1724" t="s">
         <v>4</v>
@@ -64481,7 +64505,7 @@
         <v>3300</v>
       </c>
       <c r="G1725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1725" t="s">
         <v>4</v>
@@ -64800,7 +64824,7 @@
         <v>3322</v>
       </c>
       <c r="G1736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1736" t="s">
         <v>4</v>
@@ -64829,7 +64853,7 @@
         <v>3324</v>
       </c>
       <c r="G1737" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H1737" t="s">
         <v>4</v>
@@ -64858,7 +64882,7 @@
         <v>3326</v>
       </c>
       <c r="G1738" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H1738" t="s">
         <v>4</v>
@@ -64887,7 +64911,7 @@
         <v>3328</v>
       </c>
       <c r="G1739" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1739" t="s">
         <v>4</v>
@@ -64945,7 +64969,7 @@
         <v>3332</v>
       </c>
       <c r="G1741" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1741" t="s">
         <v>4</v>
@@ -65003,7 +65027,7 @@
         <v>3336</v>
       </c>
       <c r="G1743" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H1743" t="s">
         <v>4</v>
@@ -65032,7 +65056,7 @@
         <v>3338</v>
       </c>
       <c r="G1744" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H1744" t="s">
         <v>4</v>
@@ -65061,7 +65085,7 @@
         <v>3340</v>
       </c>
       <c r="G1745" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1745" t="s">
         <v>4</v>
@@ -65090,7 +65114,7 @@
         <v>3342</v>
       </c>
       <c r="G1746" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H1746" t="s">
         <v>4</v>
@@ -65119,7 +65143,7 @@
         <v>3344</v>
       </c>
       <c r="G1747" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H1747" t="s">
         <v>4</v>
@@ -65148,7 +65172,7 @@
         <v>3346</v>
       </c>
       <c r="G1748" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1748" t="s">
         <v>4</v>
@@ -65177,7 +65201,7 @@
         <v>3348</v>
       </c>
       <c r="G1749" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1749" t="s">
         <v>4</v>
@@ -65206,7 +65230,7 @@
         <v>3350</v>
       </c>
       <c r="G1750" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1750" t="s">
         <v>4</v>
@@ -65235,7 +65259,7 @@
         <v>3352</v>
       </c>
       <c r="G1751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1751" t="s">
         <v>4</v>
@@ -65293,7 +65317,7 @@
         <v>3356</v>
       </c>
       <c r="G1753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1753" t="s">
         <v>4</v>
@@ -65838,13 +65862,13 @@
         <v>1771</v>
       </c>
       <c r="E1772" t="s">
-        <v>3393</v>
+        <v>3345</v>
       </c>
       <c r="F1772" t="s">
-        <v>3394</v>
+        <v>3346</v>
       </c>
       <c r="G1772" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1772" t="s">
         <v>4</v>
@@ -65867,13 +65891,13 @@
         <v>1772</v>
       </c>
       <c r="E1773" t="s">
-        <v>3347</v>
+        <v>3393</v>
       </c>
       <c r="F1773" t="s">
-        <v>3348</v>
+        <v>3394</v>
       </c>
       <c r="G1773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1773" t="s">
         <v>4</v>
@@ -65902,7 +65926,7 @@
         <v>3396</v>
       </c>
       <c r="G1774" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1774" t="s">
         <v>4</v>
@@ -65954,13 +65978,13 @@
         <v>1775</v>
       </c>
       <c r="E1776" t="s">
-        <v>3399</v>
+        <v>5</v>
       </c>
       <c r="F1776" t="s">
-        <v>3400</v>
+        <v>6</v>
       </c>
       <c r="G1776" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1776" t="s">
         <v>4</v>
@@ -65983,10 +66007,10 @@
         <v>1776</v>
       </c>
       <c r="E1777" t="s">
-        <v>5</v>
+        <v>3399</v>
       </c>
       <c r="F1777" t="s">
-        <v>6</v>
+        <v>3400</v>
       </c>
       <c r="G1777" t="n">
         <v>1</v>
@@ -66047,7 +66071,7 @@
         <v>3404</v>
       </c>
       <c r="G1779" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1779" t="s">
         <v>4</v>
@@ -66076,7 +66100,7 @@
         <v>3406</v>
       </c>
       <c r="G1780" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1780" t="s">
         <v>4</v>
@@ -66105,7 +66129,7 @@
         <v>3408</v>
       </c>
       <c r="G1781" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1781" t="s">
         <v>4</v>
@@ -66134,7 +66158,7 @@
         <v>3410</v>
       </c>
       <c r="G1782" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1782" t="s">
         <v>4</v>
@@ -66163,7 +66187,7 @@
         <v>3412</v>
       </c>
       <c r="G1783" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1783" t="s">
         <v>4</v>
@@ -66453,7 +66477,7 @@
         <v>3432</v>
       </c>
       <c r="G1793" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1793" t="s">
         <v>4</v>
@@ -66511,7 +66535,7 @@
         <v>3436</v>
       </c>
       <c r="G1795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1795" t="s">
         <v>4</v>
@@ -66540,7 +66564,7 @@
         <v>3438</v>
       </c>
       <c r="G1796" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1796" t="s">
         <v>4</v>
@@ -66569,7 +66593,7 @@
         <v>3440</v>
       </c>
       <c r="G1797" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1797" t="s">
         <v>4</v>
@@ -66598,7 +66622,7 @@
         <v>3442</v>
       </c>
       <c r="G1798" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1798" t="s">
         <v>4</v>
@@ -66714,7 +66738,7 @@
         <v>3450</v>
       </c>
       <c r="G1802" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1802" t="s">
         <v>4</v>
@@ -66743,7 +66767,7 @@
         <v>3452</v>
       </c>
       <c r="G1803" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1803" t="s">
         <v>4</v>
@@ -66830,7 +66854,7 @@
         <v>3458</v>
       </c>
       <c r="G1806" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1806" t="s">
         <v>4</v>
@@ -66859,7 +66883,7 @@
         <v>3460</v>
       </c>
       <c r="G1807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1807" t="s">
         <v>4</v>
@@ -66917,7 +66941,7 @@
         <v>3464</v>
       </c>
       <c r="G1809" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1809" t="s">
         <v>4</v>
@@ -66946,7 +66970,7 @@
         <v>3466</v>
       </c>
       <c r="G1810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1810" t="s">
         <v>4</v>
@@ -67062,7 +67086,7 @@
         <v>3474</v>
       </c>
       <c r="G1814" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1814" t="s">
         <v>4</v>
@@ -67091,7 +67115,7 @@
         <v>3476</v>
       </c>
       <c r="G1815" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1815" t="s">
         <v>4</v>
@@ -67201,13 +67225,13 @@
         <v>1818</v>
       </c>
       <c r="E1819" t="s">
-        <v>3483</v>
+        <v>35</v>
       </c>
       <c r="F1819" t="s">
-        <v>3484</v>
+        <v>36</v>
       </c>
       <c r="G1819" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1819" t="s">
         <v>4</v>
@@ -67230,13 +67254,13 @@
         <v>1819</v>
       </c>
       <c r="E1820" t="s">
-        <v>35</v>
+        <v>3483</v>
       </c>
       <c r="F1820" t="s">
-        <v>36</v>
+        <v>3484</v>
       </c>
       <c r="G1820" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1820" t="s">
         <v>4</v>
@@ -67259,13 +67283,13 @@
         <v>1820</v>
       </c>
       <c r="E1821" t="s">
-        <v>3485</v>
+        <v>599</v>
       </c>
       <c r="F1821" t="s">
-        <v>3486</v>
+        <v>600</v>
       </c>
       <c r="G1821" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1821" t="s">
         <v>4</v>
@@ -67288,10 +67312,10 @@
         <v>1821</v>
       </c>
       <c r="E1822" t="s">
-        <v>599</v>
+        <v>3485</v>
       </c>
       <c r="F1822" t="s">
-        <v>600</v>
+        <v>3486</v>
       </c>
       <c r="G1822" t="n">
         <v>1</v>
@@ -67433,10 +67457,10 @@
         <v>1826</v>
       </c>
       <c r="E1827" t="s">
-        <v>3495</v>
+        <v>463</v>
       </c>
       <c r="F1827" t="s">
-        <v>3496</v>
+        <v>464</v>
       </c>
       <c r="G1827" t="n">
         <v>1</v>
@@ -67462,13 +67486,13 @@
         <v>1827</v>
       </c>
       <c r="E1828" t="s">
-        <v>463</v>
+        <v>3495</v>
       </c>
       <c r="F1828" t="s">
-        <v>464</v>
+        <v>3496</v>
       </c>
       <c r="G1828" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1828" t="s">
         <v>4</v>
@@ -67497,7 +67521,7 @@
         <v>3498</v>
       </c>
       <c r="G1829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1829" t="s">
         <v>4</v>
@@ -67555,7 +67579,7 @@
         <v>3502</v>
       </c>
       <c r="G1831" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1831" t="s">
         <v>4</v>
@@ -67584,7 +67608,7 @@
         <v>3504</v>
       </c>
       <c r="G1832" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1832" t="s">
         <v>4</v>
@@ -67642,7 +67666,7 @@
         <v>3508</v>
       </c>
       <c r="G1834" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1834" t="s">
         <v>4</v>
@@ -67671,7 +67695,7 @@
         <v>3510</v>
       </c>
       <c r="G1835" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1835" t="s">
         <v>4</v>
@@ -67729,7 +67753,7 @@
         <v>3514</v>
       </c>
       <c r="G1837" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1837" t="s">
         <v>4</v>
@@ -67758,7 +67782,7 @@
         <v>3516</v>
       </c>
       <c r="G1838" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1838" t="s">
         <v>4</v>
@@ -68077,7 +68101,7 @@
         <v>3538</v>
       </c>
       <c r="G1849" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1849" t="s">
         <v>4</v>
@@ -68106,7 +68130,7 @@
         <v>3540</v>
       </c>
       <c r="G1850" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1850" t="s">
         <v>4</v>
@@ -68135,7 +68159,7 @@
         <v>3542</v>
       </c>
       <c r="G1851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1851" t="s">
         <v>4</v>
@@ -68158,10 +68182,10 @@
         <v>1851</v>
       </c>
       <c r="E1852" t="s">
-        <v>3543</v>
+        <v>1133</v>
       </c>
       <c r="F1852" t="s">
-        <v>3544</v>
+        <v>1134</v>
       </c>
       <c r="G1852" t="n">
         <v>1</v>
@@ -68187,10 +68211,10 @@
         <v>1852</v>
       </c>
       <c r="E1853" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F1853" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G1853" t="n">
         <v>1</v>
@@ -68216,10 +68240,10 @@
         <v>1853</v>
       </c>
       <c r="E1854" t="s">
-        <v>1135</v>
+        <v>945</v>
       </c>
       <c r="F1854" t="s">
-        <v>1136</v>
+        <v>946</v>
       </c>
       <c r="G1854" t="n">
         <v>1</v>
@@ -68245,10 +68269,10 @@
         <v>1854</v>
       </c>
       <c r="E1855" t="s">
-        <v>945</v>
+        <v>3543</v>
       </c>
       <c r="F1855" t="s">
-        <v>946</v>
+        <v>3544</v>
       </c>
       <c r="G1855" t="n">
         <v>1</v>
@@ -68483,7 +68507,7 @@
         <v>3560</v>
       </c>
       <c r="G1863" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H1863" t="s">
         <v>4</v>
@@ -68512,7 +68536,7 @@
         <v>3562</v>
       </c>
       <c r="G1864" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H1864" t="s">
         <v>4</v>
@@ -68541,7 +68565,7 @@
         <v>3564</v>
       </c>
       <c r="G1865" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H1865" t="s">
         <v>4</v>
@@ -68564,13 +68588,13 @@
         <v>1865</v>
       </c>
       <c r="E1866" t="s">
-        <v>3565</v>
+        <v>1173</v>
       </c>
       <c r="F1866" t="s">
-        <v>3566</v>
+        <v>1174</v>
       </c>
       <c r="G1866" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H1866" t="s">
         <v>4</v>
@@ -68593,13 +68617,13 @@
         <v>1866</v>
       </c>
       <c r="E1867" t="s">
-        <v>1173</v>
+        <v>1939</v>
       </c>
       <c r="F1867" t="s">
-        <v>1174</v>
+        <v>1940</v>
       </c>
       <c r="G1867" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H1867" t="s">
         <v>4</v>
@@ -68622,13 +68646,13 @@
         <v>1867</v>
       </c>
       <c r="E1868" t="s">
-        <v>1939</v>
+        <v>3565</v>
       </c>
       <c r="F1868" t="s">
-        <v>1940</v>
+        <v>3566</v>
       </c>
       <c r="G1868" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1868" t="s">
         <v>4</v>
@@ -68715,7 +68739,7 @@
         <v>3572</v>
       </c>
       <c r="G1871" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1871" t="s">
         <v>4</v>
@@ -68802,7 +68826,7 @@
         <v>3578</v>
       </c>
       <c r="G1874" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1874" t="s">
         <v>4</v>
@@ -68831,7 +68855,7 @@
         <v>3580</v>
       </c>
       <c r="G1875" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1875" t="s">
         <v>4</v>
@@ -68860,7 +68884,7 @@
         <v>3582</v>
       </c>
       <c r="G1876" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1876" t="s">
         <v>4</v>
@@ -68947,7 +68971,7 @@
         <v>3588</v>
       </c>
       <c r="G1879" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H1879" t="s">
         <v>4</v>
@@ -68976,7 +69000,7 @@
         <v>3590</v>
       </c>
       <c r="G1880" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H1880" t="s">
         <v>4</v>
@@ -69005,7 +69029,7 @@
         <v>3592</v>
       </c>
       <c r="G1881" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1881" t="s">
         <v>4</v>
@@ -69092,7 +69116,7 @@
         <v>3598</v>
       </c>
       <c r="G1884" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1884" t="s">
         <v>4</v>
@@ -69144,13 +69168,13 @@
         <v>1885</v>
       </c>
       <c r="E1886" t="s">
-        <v>3601</v>
+        <v>1141</v>
       </c>
       <c r="F1886" t="s">
-        <v>3602</v>
+        <v>1142</v>
       </c>
       <c r="G1886" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H1886" t="s">
         <v>4</v>
@@ -69173,13 +69197,13 @@
         <v>1886</v>
       </c>
       <c r="E1887" t="s">
-        <v>1141</v>
+        <v>3601</v>
       </c>
       <c r="F1887" t="s">
-        <v>1142</v>
+        <v>3602</v>
       </c>
       <c r="G1887" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H1887" t="s">
         <v>4</v>
@@ -69237,7 +69261,7 @@
         <v>3606</v>
       </c>
       <c r="G1889" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1889" t="s">
         <v>4</v>
@@ -69266,7 +69290,7 @@
         <v>3608</v>
       </c>
       <c r="G1890" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1890" t="s">
         <v>4</v>
@@ -69295,7 +69319,7 @@
         <v>3610</v>
       </c>
       <c r="G1891" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1891" t="s">
         <v>4</v>
@@ -69318,10 +69342,10 @@
         <v>1891</v>
       </c>
       <c r="E1892" t="s">
-        <v>3611</v>
+        <v>1145</v>
       </c>
       <c r="F1892" t="s">
-        <v>3612</v>
+        <v>1146</v>
       </c>
       <c r="G1892" t="n">
         <v>1</v>
@@ -69347,13 +69371,13 @@
         <v>1892</v>
       </c>
       <c r="E1893" t="s">
-        <v>1145</v>
+        <v>3611</v>
       </c>
       <c r="F1893" t="s">
-        <v>1146</v>
+        <v>3612</v>
       </c>
       <c r="G1893" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H1893" t="s">
         <v>4</v>
@@ -69382,7 +69406,7 @@
         <v>3614</v>
       </c>
       <c r="G1894" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H1894" t="s">
         <v>4</v>
@@ -69434,10 +69458,10 @@
         <v>1895</v>
       </c>
       <c r="E1896" t="s">
-        <v>3617</v>
+        <v>309</v>
       </c>
       <c r="F1896" t="s">
-        <v>3618</v>
+        <v>310</v>
       </c>
       <c r="G1896" t="n">
         <v>1</v>
@@ -69463,10 +69487,10 @@
         <v>1896</v>
       </c>
       <c r="E1897" t="s">
-        <v>309</v>
+        <v>3617</v>
       </c>
       <c r="F1897" t="s">
-        <v>310</v>
+        <v>3618</v>
       </c>
       <c r="G1897" t="n">
         <v>1</v>
@@ -69695,13 +69719,13 @@
         <v>1904</v>
       </c>
       <c r="E1905" t="s">
-        <v>3633</v>
+        <v>53</v>
       </c>
       <c r="F1905" t="s">
-        <v>3634</v>
+        <v>54</v>
       </c>
       <c r="G1905" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1905" t="s">
         <v>4</v>
@@ -69724,13 +69748,13 @@
         <v>1905</v>
       </c>
       <c r="E1906" t="s">
-        <v>53</v>
+        <v>639</v>
       </c>
       <c r="F1906" t="s">
-        <v>54</v>
+        <v>640</v>
       </c>
       <c r="G1906" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1906" t="s">
         <v>4</v>
@@ -69753,13 +69777,13 @@
         <v>1906</v>
       </c>
       <c r="E1907" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="F1907" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G1907" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1907" t="s">
         <v>4</v>
@@ -69782,13 +69806,13 @@
         <v>1907</v>
       </c>
       <c r="E1908" t="s">
-        <v>647</v>
+        <v>3633</v>
       </c>
       <c r="F1908" t="s">
-        <v>648</v>
+        <v>3634</v>
       </c>
       <c r="G1908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1908" t="s">
         <v>4</v>
@@ -69846,7 +69870,7 @@
         <v>3638</v>
       </c>
       <c r="G1910" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1910" t="s">
         <v>4</v>
@@ -69869,13 +69893,13 @@
         <v>1910</v>
       </c>
       <c r="E1911" t="s">
-        <v>3639</v>
+        <v>823</v>
       </c>
       <c r="F1911" t="s">
-        <v>3640</v>
+        <v>824</v>
       </c>
       <c r="G1911" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1911" t="s">
         <v>4</v>
@@ -69898,13 +69922,13 @@
         <v>1911</v>
       </c>
       <c r="E1912" t="s">
-        <v>823</v>
+        <v>1081</v>
       </c>
       <c r="F1912" t="s">
-        <v>824</v>
+        <v>1082</v>
       </c>
       <c r="G1912" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1912" t="s">
         <v>4</v>
@@ -69927,13 +69951,13 @@
         <v>1912</v>
       </c>
       <c r="E1913" t="s">
-        <v>1081</v>
+        <v>3639</v>
       </c>
       <c r="F1913" t="s">
-        <v>1082</v>
+        <v>3640</v>
       </c>
       <c r="G1913" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H1913" t="s">
         <v>4</v>
@@ -69962,7 +69986,7 @@
         <v>3642</v>
       </c>
       <c r="G1914" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1914" t="s">
         <v>4</v>
@@ -69991,7 +70015,7 @@
         <v>3644</v>
       </c>
       <c r="G1915" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H1915" t="s">
         <v>4</v>
@@ -70304,13 +70328,13 @@
         <v>1925</v>
       </c>
       <c r="E1926" t="s">
-        <v>3665</v>
+        <v>1335</v>
       </c>
       <c r="F1926" t="s">
-        <v>3666</v>
+        <v>1336</v>
       </c>
       <c r="G1926" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H1926" t="s">
         <v>4</v>
@@ -70333,13 +70357,13 @@
         <v>1926</v>
       </c>
       <c r="E1927" t="s">
-        <v>1335</v>
+        <v>3665</v>
       </c>
       <c r="F1927" t="s">
-        <v>1336</v>
+        <v>3666</v>
       </c>
       <c r="G1927" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H1927" t="s">
         <v>4</v>
@@ -70362,13 +70386,13 @@
         <v>1927</v>
       </c>
       <c r="E1928" t="s">
-        <v>3667</v>
+        <v>1453</v>
       </c>
       <c r="F1928" t="s">
-        <v>3668</v>
+        <v>1454</v>
       </c>
       <c r="G1928" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H1928" t="s">
         <v>4</v>
@@ -70391,13 +70415,13 @@
         <v>1928</v>
       </c>
       <c r="E1929" t="s">
-        <v>1453</v>
+        <v>3667</v>
       </c>
       <c r="F1929" t="s">
-        <v>1454</v>
+        <v>3668</v>
       </c>
       <c r="G1929" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H1929" t="s">
         <v>4</v>
@@ -70420,10 +70444,10 @@
         <v>1929</v>
       </c>
       <c r="E1930" t="s">
-        <v>3669</v>
+        <v>3487</v>
       </c>
       <c r="F1930" t="s">
-        <v>3670</v>
+        <v>3488</v>
       </c>
       <c r="G1930" t="n">
         <v>1</v>
@@ -70449,10 +70473,10 @@
         <v>1930</v>
       </c>
       <c r="E1931" t="s">
-        <v>3489</v>
+        <v>3669</v>
       </c>
       <c r="F1931" t="s">
-        <v>3490</v>
+        <v>3670</v>
       </c>
       <c r="G1931" t="n">
         <v>1</v>
@@ -70507,13 +70531,13 @@
         <v>1932</v>
       </c>
       <c r="E1933" t="s">
-        <v>3673</v>
+        <v>91</v>
       </c>
       <c r="F1933" t="s">
-        <v>3674</v>
+        <v>92</v>
       </c>
       <c r="G1933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1933" t="s">
         <v>4</v>
@@ -70536,13 +70560,13 @@
         <v>1933</v>
       </c>
       <c r="E1934" t="s">
-        <v>91</v>
+        <v>3673</v>
       </c>
       <c r="F1934" t="s">
-        <v>92</v>
+        <v>3674</v>
       </c>
       <c r="G1934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1934" t="s">
         <v>4</v>
@@ -70565,13 +70589,13 @@
         <v>1934</v>
       </c>
       <c r="E1935" t="s">
-        <v>3675</v>
+        <v>1459</v>
       </c>
       <c r="F1935" t="s">
-        <v>3676</v>
+        <v>1460</v>
       </c>
       <c r="G1935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1935" t="s">
         <v>4</v>
@@ -70594,13 +70618,13 @@
         <v>1935</v>
       </c>
       <c r="E1936" t="s">
-        <v>1459</v>
+        <v>3675</v>
       </c>
       <c r="F1936" t="s">
-        <v>1460</v>
+        <v>3676</v>
       </c>
       <c r="G1936" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1936" t="s">
         <v>4</v>
@@ -70710,13 +70734,13 @@
         <v>1939</v>
       </c>
       <c r="E1940" t="s">
-        <v>3683</v>
+        <v>1627</v>
       </c>
       <c r="F1940" t="s">
-        <v>3684</v>
+        <v>1628</v>
       </c>
       <c r="G1940" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1940" t="s">
         <v>4</v>
@@ -70739,13 +70763,13 @@
         <v>1940</v>
       </c>
       <c r="E1941" t="s">
-        <v>1627</v>
+        <v>3683</v>
       </c>
       <c r="F1941" t="s">
-        <v>1628</v>
+        <v>3684</v>
       </c>
       <c r="G1941" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1941" t="s">
         <v>4</v>
@@ -70826,10 +70850,10 @@
         <v>1943</v>
       </c>
       <c r="E1944" t="s">
-        <v>3689</v>
+        <v>1909</v>
       </c>
       <c r="F1944" t="s">
-        <v>3690</v>
+        <v>1910</v>
       </c>
       <c r="G1944" t="n">
         <v>1</v>
@@ -70855,10 +70879,10 @@
         <v>1944</v>
       </c>
       <c r="E1945" t="s">
-        <v>1909</v>
+        <v>3689</v>
       </c>
       <c r="F1945" t="s">
-        <v>1910</v>
+        <v>3690</v>
       </c>
       <c r="G1945" t="n">
         <v>1</v>
@@ -70942,13 +70966,13 @@
         <v>1947</v>
       </c>
       <c r="E1948" t="s">
-        <v>3695</v>
+        <v>2151</v>
       </c>
       <c r="F1948" t="s">
-        <v>3696</v>
+        <v>2152</v>
       </c>
       <c r="G1948" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H1948" t="s">
         <v>4</v>
@@ -70971,13 +70995,13 @@
         <v>1948</v>
       </c>
       <c r="E1949" t="s">
-        <v>2151</v>
+        <v>3695</v>
       </c>
       <c r="F1949" t="s">
-        <v>2152</v>
+        <v>3696</v>
       </c>
       <c r="G1949" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H1949" t="s">
         <v>4</v>
@@ -71058,13 +71082,13 @@
         <v>1951</v>
       </c>
       <c r="E1952" t="s">
-        <v>3701</v>
+        <v>3241</v>
       </c>
       <c r="F1952" t="s">
-        <v>3702</v>
+        <v>3242</v>
       </c>
       <c r="G1952" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1952" t="s">
         <v>4</v>
@@ -71087,13 +71111,13 @@
         <v>1952</v>
       </c>
       <c r="E1953" t="s">
-        <v>3243</v>
+        <v>3701</v>
       </c>
       <c r="F1953" t="s">
-        <v>3244</v>
+        <v>3702</v>
       </c>
       <c r="G1953" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1953" t="s">
         <v>4</v>
@@ -71116,13 +71140,13 @@
         <v>1953</v>
       </c>
       <c r="E1954" t="s">
-        <v>3703</v>
+        <v>2413</v>
       </c>
       <c r="F1954" t="s">
-        <v>3704</v>
+        <v>2414</v>
       </c>
       <c r="G1954" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H1954" t="s">
         <v>4</v>
@@ -71145,13 +71169,13 @@
         <v>1954</v>
       </c>
       <c r="E1955" t="s">
-        <v>2415</v>
+        <v>3703</v>
       </c>
       <c r="F1955" t="s">
-        <v>2416</v>
+        <v>3704</v>
       </c>
       <c r="G1955" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H1955" t="s">
         <v>4</v>
@@ -71174,13 +71198,13 @@
         <v>1955</v>
       </c>
       <c r="E1956" t="s">
-        <v>3705</v>
+        <v>2679</v>
       </c>
       <c r="F1956" t="s">
-        <v>3706</v>
+        <v>2680</v>
       </c>
       <c r="G1956" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H1956" t="s">
         <v>4</v>
@@ -71203,13 +71227,13 @@
         <v>1956</v>
       </c>
       <c r="E1957" t="s">
-        <v>2681</v>
+        <v>3705</v>
       </c>
       <c r="F1957" t="s">
-        <v>2682</v>
+        <v>3706</v>
       </c>
       <c r="G1957" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H1957" t="s">
         <v>4</v>
@@ -71319,13 +71343,13 @@
         <v>1960</v>
       </c>
       <c r="E1961" t="s">
-        <v>3713</v>
+        <v>13</v>
       </c>
       <c r="F1961" t="s">
-        <v>3714</v>
+        <v>14</v>
       </c>
       <c r="G1961" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H1961" t="s">
         <v>4</v>
@@ -71348,13 +71372,13 @@
         <v>1961</v>
       </c>
       <c r="E1962" t="s">
-        <v>13</v>
+        <v>1085</v>
       </c>
       <c r="F1962" t="s">
-        <v>14</v>
+        <v>1086</v>
       </c>
       <c r="G1962" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H1962" t="s">
         <v>4</v>
@@ -71377,13 +71401,13 @@
         <v>1962</v>
       </c>
       <c r="E1963" t="s">
-        <v>1085</v>
+        <v>3713</v>
       </c>
       <c r="F1963" t="s">
-        <v>1086</v>
+        <v>3714</v>
       </c>
       <c r="G1963" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1963" t="s">
         <v>4</v>
@@ -71406,13 +71430,13 @@
         <v>1963</v>
       </c>
       <c r="E1964" t="s">
-        <v>3715</v>
+        <v>1147</v>
       </c>
       <c r="F1964" t="s">
-        <v>3716</v>
+        <v>1148</v>
       </c>
       <c r="G1964" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1964" t="s">
         <v>4</v>
@@ -71435,13 +71459,13 @@
         <v>1964</v>
       </c>
       <c r="E1965" t="s">
-        <v>1147</v>
+        <v>3715</v>
       </c>
       <c r="F1965" t="s">
-        <v>1148</v>
+        <v>3716</v>
       </c>
       <c r="G1965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1965" t="s">
         <v>4</v>
@@ -71499,7 +71523,7 @@
         <v>3720</v>
       </c>
       <c r="G1967" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1967" t="s">
         <v>4</v>
@@ -71528,7 +71552,7 @@
         <v>3722</v>
       </c>
       <c r="G1968" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1968" t="s">
         <v>4</v>
@@ -71615,7 +71639,7 @@
         <v>3728</v>
       </c>
       <c r="G1971" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1971" t="s">
         <v>4</v>
@@ -71644,7 +71668,7 @@
         <v>3730</v>
       </c>
       <c r="G1972" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1972" t="s">
         <v>4</v>
@@ -71731,7 +71755,7 @@
         <v>3736</v>
       </c>
       <c r="G1975" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1975" t="s">
         <v>4</v>
@@ -71760,7 +71784,7 @@
         <v>3738</v>
       </c>
       <c r="G1976" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1976" t="s">
         <v>4</v>
@@ -71963,7 +71987,7 @@
         <v>3752</v>
       </c>
       <c r="G1983" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1983" t="s">
         <v>4</v>
@@ -71992,7 +72016,7 @@
         <v>3754</v>
       </c>
       <c r="G1984" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1984" t="s">
         <v>4</v>
@@ -72224,7 +72248,7 @@
         <v>3770</v>
       </c>
       <c r="G1992" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1992" t="s">
         <v>4</v>
@@ -72253,7 +72277,7 @@
         <v>3772</v>
       </c>
       <c r="G1993" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1993" t="s">
         <v>4</v>
@@ -72369,7 +72393,7 @@
         <v>3780</v>
       </c>
       <c r="G1997" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1997" t="s">
         <v>4</v>
@@ -72398,7 +72422,7 @@
         <v>3782</v>
       </c>
       <c r="G1998" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1998" t="s">
         <v>4</v>
@@ -72804,7 +72828,7 @@
         <v>3810</v>
       </c>
       <c r="G2012" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2012" t="s">
         <v>4</v>
@@ -72833,7 +72857,7 @@
         <v>3812</v>
       </c>
       <c r="G2013" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2013" t="s">
         <v>4</v>
@@ -73703,7 +73727,7 @@
         <v>3872</v>
       </c>
       <c r="G2043" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2043" t="s">
         <v>4</v>
@@ -73732,7 +73756,7 @@
         <v>3874</v>
       </c>
       <c r="G2044" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2044" t="s">
         <v>4</v>
@@ -74225,7 +74249,7 @@
         <v>3908</v>
       </c>
       <c r="G2061" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2061" t="s">
         <v>4</v>
@@ -74254,7 +74278,7 @@
         <v>3910</v>
       </c>
       <c r="G2062" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2062" t="s">
         <v>4</v>
@@ -74277,13 +74301,13 @@
         <v>2062</v>
       </c>
       <c r="E2063" t="s">
-        <v>3911</v>
+        <v>1081</v>
       </c>
       <c r="F2063" t="s">
-        <v>3912</v>
+        <v>1082</v>
       </c>
       <c r="G2063" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2063" t="s">
         <v>4</v>
@@ -74306,13 +74330,13 @@
         <v>2063</v>
       </c>
       <c r="E2064" t="s">
-        <v>1081</v>
+        <v>3911</v>
       </c>
       <c r="F2064" t="s">
-        <v>1082</v>
+        <v>3912</v>
       </c>
       <c r="G2064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2064" t="s">
         <v>4</v>
@@ -74341,7 +74365,7 @@
         <v>3914</v>
       </c>
       <c r="G2065" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2065" t="s">
         <v>4</v>
@@ -74370,7 +74394,7 @@
         <v>3916</v>
       </c>
       <c r="G2066" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2066" t="s">
         <v>4</v>
@@ -74393,13 +74417,13 @@
         <v>2066</v>
       </c>
       <c r="E2067" t="s">
-        <v>3917</v>
+        <v>3539</v>
       </c>
       <c r="F2067" t="s">
-        <v>3918</v>
+        <v>3540</v>
       </c>
       <c r="G2067" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2067" t="s">
         <v>4</v>
@@ -74422,13 +74446,13 @@
         <v>2067</v>
       </c>
       <c r="E2068" t="s">
-        <v>3541</v>
+        <v>3917</v>
       </c>
       <c r="F2068" t="s">
-        <v>3542</v>
+        <v>3918</v>
       </c>
       <c r="G2068" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2068" t="s">
         <v>4</v>
@@ -74457,7 +74481,7 @@
         <v>3920</v>
       </c>
       <c r="G2069" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2069" t="s">
         <v>4</v>
@@ -74480,10 +74504,10 @@
         <v>2069</v>
       </c>
       <c r="E2070" t="s">
-        <v>3921</v>
+        <v>923</v>
       </c>
       <c r="F2070" t="s">
-        <v>3922</v>
+        <v>924</v>
       </c>
       <c r="G2070" t="n">
         <v>1</v>
@@ -74509,10 +74533,10 @@
         <v>2070</v>
       </c>
       <c r="E2071" t="s">
-        <v>923</v>
+        <v>3921</v>
       </c>
       <c r="F2071" t="s">
-        <v>924</v>
+        <v>3922</v>
       </c>
       <c r="G2071" t="n">
         <v>1</v>
@@ -74573,7 +74597,7 @@
         <v>3926</v>
       </c>
       <c r="G2073" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2073" t="s">
         <v>4</v>
@@ -74596,13 +74620,13 @@
         <v>2073</v>
       </c>
       <c r="E2074" t="s">
-        <v>3927</v>
+        <v>1047</v>
       </c>
       <c r="F2074" t="s">
-        <v>3928</v>
+        <v>1048</v>
       </c>
       <c r="G2074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2074" t="s">
         <v>4</v>
@@ -74625,13 +74649,13 @@
         <v>2074</v>
       </c>
       <c r="E2075" t="s">
-        <v>1047</v>
+        <v>3927</v>
       </c>
       <c r="F2075" t="s">
-        <v>1048</v>
+        <v>3928</v>
       </c>
       <c r="G2075" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2075" t="s">
         <v>4</v>
@@ -74828,10 +74852,10 @@
         <v>2081</v>
       </c>
       <c r="E2082" t="s">
-        <v>3941</v>
+        <v>159</v>
       </c>
       <c r="F2082" t="s">
-        <v>3942</v>
+        <v>160</v>
       </c>
       <c r="G2082" t="n">
         <v>1</v>
@@ -74857,13 +74881,13 @@
         <v>2082</v>
       </c>
       <c r="E2083" t="s">
-        <v>159</v>
+        <v>3941</v>
       </c>
       <c r="F2083" t="s">
-        <v>160</v>
+        <v>3942</v>
       </c>
       <c r="G2083" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2083" t="s">
         <v>4</v>
@@ -74892,7 +74916,7 @@
         <v>3944</v>
       </c>
       <c r="G2084" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2084" t="s">
         <v>4</v>
@@ -74921,7 +74945,7 @@
         <v>3946</v>
       </c>
       <c r="G2085" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2085" t="s">
         <v>4</v>
@@ -74950,7 +74974,7 @@
         <v>3948</v>
       </c>
       <c r="G2086" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2086" t="s">
         <v>4</v>
@@ -74979,7 +75003,7 @@
         <v>3950</v>
       </c>
       <c r="G2087" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2087" t="s">
         <v>4</v>
@@ -75008,7 +75032,7 @@
         <v>3952</v>
       </c>
       <c r="G2088" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2088" t="s">
         <v>4</v>
@@ -75037,7 +75061,7 @@
         <v>3954</v>
       </c>
       <c r="G2089" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2089" t="s">
         <v>4</v>
@@ -75066,7 +75090,7 @@
         <v>3956</v>
       </c>
       <c r="G2090" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2090" t="s">
         <v>4</v>
@@ -75095,7 +75119,7 @@
         <v>3958</v>
       </c>
       <c r="G2091" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2091" t="s">
         <v>4</v>
@@ -75124,7 +75148,7 @@
         <v>3960</v>
       </c>
       <c r="G2092" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2092" t="s">
         <v>4</v>
@@ -75153,7 +75177,7 @@
         <v>3962</v>
       </c>
       <c r="G2093" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H2093" t="s">
         <v>4</v>
@@ -75182,7 +75206,7 @@
         <v>3964</v>
       </c>
       <c r="G2094" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2094" t="s">
         <v>4</v>
@@ -75211,7 +75235,7 @@
         <v>3966</v>
       </c>
       <c r="G2095" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H2095" t="s">
         <v>4</v>
@@ -75240,7 +75264,7 @@
         <v>3968</v>
       </c>
       <c r="G2096" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2096" t="s">
         <v>4</v>
@@ -75269,7 +75293,7 @@
         <v>3970</v>
       </c>
       <c r="G2097" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2097" t="s">
         <v>4</v>
@@ -75298,7 +75322,7 @@
         <v>3972</v>
       </c>
       <c r="G2098" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2098" t="s">
         <v>4</v>
@@ -75327,7 +75351,7 @@
         <v>3974</v>
       </c>
       <c r="G2099" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2099" t="s">
         <v>4</v>
@@ -75356,7 +75380,7 @@
         <v>3976</v>
       </c>
       <c r="G2100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2100" t="s">
         <v>4</v>
@@ -75385,7 +75409,7 @@
         <v>3978</v>
       </c>
       <c r="G2101" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2101" t="s">
         <v>4</v>
@@ -75414,7 +75438,7 @@
         <v>3980</v>
       </c>
       <c r="G2102" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2102" t="s">
         <v>4</v>
@@ -75443,7 +75467,7 @@
         <v>3982</v>
       </c>
       <c r="G2103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2103" t="s">
         <v>4</v>
@@ -75472,7 +75496,7 @@
         <v>3984</v>
       </c>
       <c r="G2104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2104" t="s">
         <v>4</v>
@@ -75495,13 +75519,13 @@
         <v>2104</v>
       </c>
       <c r="E2105" t="s">
-        <v>3985</v>
+        <v>1351</v>
       </c>
       <c r="F2105" t="s">
-        <v>3986</v>
+        <v>1352</v>
       </c>
       <c r="G2105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2105" t="s">
         <v>4</v>
@@ -75524,13 +75548,13 @@
         <v>2105</v>
       </c>
       <c r="E2106" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="F2106" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="G2106" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2106" t="s">
         <v>4</v>
@@ -75553,13 +75577,13 @@
         <v>2106</v>
       </c>
       <c r="E2107" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="F2107" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="G2107" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H2107" t="s">
         <v>4</v>
@@ -75582,13 +75606,13 @@
         <v>2107</v>
       </c>
       <c r="E2108" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="F2108" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="G2108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2108" t="s">
         <v>4</v>
@@ -75611,10 +75635,10 @@
         <v>2108</v>
       </c>
       <c r="E2109" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="F2109" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="G2109" t="n">
         <v>3</v>
@@ -75640,13 +75664,13 @@
         <v>2109</v>
       </c>
       <c r="E2110" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="F2110" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="G2110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2110" t="s">
         <v>4</v>
@@ -75669,13 +75693,13 @@
         <v>2110</v>
       </c>
       <c r="E2111" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="F2111" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="G2111" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2111" t="s">
         <v>4</v>
@@ -75698,13 +75722,13 @@
         <v>2111</v>
       </c>
       <c r="E2112" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="F2112" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="G2112" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2112" t="s">
         <v>4</v>
@@ -75727,13 +75751,13 @@
         <v>2112</v>
       </c>
       <c r="E2113" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="F2113" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="G2113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2113" t="s">
         <v>4</v>
@@ -75756,13 +75780,13 @@
         <v>2113</v>
       </c>
       <c r="E2114" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="F2114" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="G2114" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2114" t="s">
         <v>4</v>
@@ -75785,13 +75809,13 @@
         <v>2114</v>
       </c>
       <c r="E2115" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="F2115" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="G2115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2115" t="s">
         <v>4</v>
@@ -75814,13 +75838,13 @@
         <v>2115</v>
       </c>
       <c r="E2116" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="F2116" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="G2116" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2116" t="s">
         <v>4</v>
@@ -75843,13 +75867,13 @@
         <v>2116</v>
       </c>
       <c r="E2117" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="F2117" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="G2117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2117" t="s">
         <v>4</v>
@@ -75872,13 +75896,13 @@
         <v>2117</v>
       </c>
       <c r="E2118" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="F2118" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="G2118" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H2118" t="s">
         <v>4</v>
@@ -75901,13 +75925,13 @@
         <v>2118</v>
       </c>
       <c r="E2119" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F2119" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="G2119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2119" t="s">
         <v>4</v>
@@ -75930,13 +75954,13 @@
         <v>2119</v>
       </c>
       <c r="E2120" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="F2120" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="G2120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2120" t="s">
         <v>4</v>
@@ -75959,13 +75983,13 @@
         <v>2120</v>
       </c>
       <c r="E2121" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="F2121" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="G2121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2121" t="s">
         <v>4</v>
@@ -75988,13 +76012,13 @@
         <v>2121</v>
       </c>
       <c r="E2122" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="F2122" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="G2122" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H2122" t="s">
         <v>4</v>
@@ -76017,10 +76041,10 @@
         <v>2122</v>
       </c>
       <c r="E2123" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="F2123" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="G2123" t="n">
         <v>1</v>
@@ -76046,13 +76070,13 @@
         <v>2123</v>
       </c>
       <c r="E2124" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="F2124" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="G2124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2124" t="s">
         <v>4</v>
@@ -76075,10 +76099,10 @@
         <v>2124</v>
       </c>
       <c r="E2125" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="F2125" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="G2125" t="n">
         <v>1</v>
@@ -76104,10 +76128,10 @@
         <v>2125</v>
       </c>
       <c r="E2126" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="F2126" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="G2126" t="n">
         <v>1</v>
@@ -76133,13 +76157,13 @@
         <v>2126</v>
       </c>
       <c r="E2127" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F2127" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="G2127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2127" t="s">
         <v>4</v>
@@ -76162,10 +76186,10 @@
         <v>2127</v>
       </c>
       <c r="E2128" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="F2128" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="G2128" t="n">
         <v>1</v>
@@ -76191,13 +76215,13 @@
         <v>2128</v>
       </c>
       <c r="E2129" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="F2129" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="G2129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2129" t="s">
         <v>4</v>
@@ -76220,10 +76244,10 @@
         <v>2129</v>
       </c>
       <c r="E2130" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="F2130" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="G2130" t="n">
         <v>1</v>
@@ -76249,13 +76273,13 @@
         <v>2130</v>
       </c>
       <c r="E2131" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="F2131" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="G2131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2131" t="s">
         <v>4</v>
@@ -76278,13 +76302,13 @@
         <v>2131</v>
       </c>
       <c r="E2132" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="F2132" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="G2132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2132" t="s">
         <v>4</v>
@@ -76307,10 +76331,10 @@
         <v>2132</v>
       </c>
       <c r="E2133" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="F2133" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="G2133" t="n">
         <v>1</v>
@@ -76336,13 +76360,13 @@
         <v>2133</v>
       </c>
       <c r="E2134" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="F2134" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="G2134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2134" t="s">
         <v>4</v>
@@ -76365,13 +76389,13 @@
         <v>2134</v>
       </c>
       <c r="E2135" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="F2135" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="G2135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2135" t="s">
         <v>4</v>
@@ -76394,13 +76418,13 @@
         <v>2135</v>
       </c>
       <c r="E2136" t="s">
-        <v>967</v>
+        <v>4045</v>
       </c>
       <c r="F2136" t="s">
-        <v>968</v>
+        <v>4046</v>
       </c>
       <c r="G2136" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2136" t="s">
         <v>4</v>
@@ -76429,7 +76453,7 @@
         <v>4048</v>
       </c>
       <c r="G2137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2137" t="s">
         <v>4</v>
@@ -76510,13 +76534,13 @@
         <v>2139</v>
       </c>
       <c r="E2140" t="s">
-        <v>3943</v>
+        <v>4053</v>
       </c>
       <c r="F2140" t="s">
-        <v>3944</v>
+        <v>4054</v>
       </c>
       <c r="G2140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2140" t="s">
         <v>4</v>
@@ -76539,13 +76563,13 @@
         <v>2140</v>
       </c>
       <c r="E2141" t="s">
-        <v>4053</v>
+        <v>967</v>
       </c>
       <c r="F2141" t="s">
-        <v>4054</v>
+        <v>968</v>
       </c>
       <c r="G2141" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2141" t="s">
         <v>4</v>
@@ -76661,7 +76685,7 @@
         <v>4062</v>
       </c>
       <c r="G2145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2145" t="s">
         <v>4</v>
@@ -76777,7 +76801,7 @@
         <v>4070</v>
       </c>
       <c r="G2149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2149" t="s">
         <v>4</v>
@@ -76806,7 +76830,7 @@
         <v>4072</v>
       </c>
       <c r="G2150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2150" t="s">
         <v>4</v>
@@ -76916,13 +76940,13 @@
         <v>2153</v>
       </c>
       <c r="E2154" t="s">
-        <v>4077</v>
+        <v>4079</v>
       </c>
       <c r="F2154" t="s">
-        <v>4078</v>
+        <v>4080</v>
       </c>
       <c r="G2154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2154" t="s">
         <v>4</v>
@@ -76945,13 +76969,13 @@
         <v>2154</v>
       </c>
       <c r="E2155" t="s">
-        <v>4079</v>
+        <v>4081</v>
       </c>
       <c r="F2155" t="s">
-        <v>4080</v>
+        <v>4082</v>
       </c>
       <c r="G2155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2155" t="s">
         <v>4</v>
@@ -76974,13 +76998,13 @@
         <v>2155</v>
       </c>
       <c r="E2156" t="s">
-        <v>4081</v>
+        <v>4083</v>
       </c>
       <c r="F2156" t="s">
-        <v>4082</v>
+        <v>4084</v>
       </c>
       <c r="G2156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2156" t="s">
         <v>4</v>
@@ -77003,10 +77027,10 @@
         <v>2156</v>
       </c>
       <c r="E2157" t="s">
-        <v>4083</v>
+        <v>4085</v>
       </c>
       <c r="F2157" t="s">
-        <v>4084</v>
+        <v>4086</v>
       </c>
       <c r="G2157" t="n">
         <v>1</v>
@@ -77032,10 +77056,10 @@
         <v>2157</v>
       </c>
       <c r="E2158" t="s">
-        <v>4085</v>
+        <v>4087</v>
       </c>
       <c r="F2158" t="s">
-        <v>4086</v>
+        <v>4088</v>
       </c>
       <c r="G2158" t="n">
         <v>1</v>
@@ -77125,7 +77149,7 @@
         <v>4092</v>
       </c>
       <c r="G2161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2161" t="s">
         <v>4</v>
@@ -77502,7 +77526,7 @@
         <v>4118</v>
       </c>
       <c r="G2174" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2174" t="s">
         <v>4</v>
@@ -77647,7 +77671,7 @@
         <v>4128</v>
       </c>
       <c r="G2179" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2179" t="s">
         <v>4</v>
@@ -77670,13 +77694,13 @@
         <v>2179</v>
       </c>
       <c r="E2180" t="s">
-        <v>3987</v>
+        <v>4129</v>
       </c>
       <c r="F2180" t="s">
-        <v>3988</v>
+        <v>4130</v>
       </c>
       <c r="G2180" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2180" t="s">
         <v>4</v>
@@ -77699,10 +77723,10 @@
         <v>2180</v>
       </c>
       <c r="E2181" t="s">
-        <v>4129</v>
+        <v>4131</v>
       </c>
       <c r="F2181" t="s">
-        <v>4130</v>
+        <v>4132</v>
       </c>
       <c r="G2181" t="n">
         <v>1</v>
@@ -77728,10 +77752,10 @@
         <v>2181</v>
       </c>
       <c r="E2182" t="s">
-        <v>4131</v>
+        <v>4133</v>
       </c>
       <c r="F2182" t="s">
-        <v>4132</v>
+        <v>4134</v>
       </c>
       <c r="G2182" t="n">
         <v>1</v>
@@ -77757,13 +77781,13 @@
         <v>2182</v>
       </c>
       <c r="E2183" t="s">
-        <v>4133</v>
+        <v>4135</v>
       </c>
       <c r="F2183" t="s">
-        <v>4134</v>
+        <v>4136</v>
       </c>
       <c r="G2183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2183" t="s">
         <v>4</v>
@@ -77786,10 +77810,10 @@
         <v>2183</v>
       </c>
       <c r="E2184" t="s">
-        <v>4135</v>
+        <v>4137</v>
       </c>
       <c r="F2184" t="s">
-        <v>4136</v>
+        <v>4138</v>
       </c>
       <c r="G2184" t="n">
         <v>1</v>
@@ -77815,13 +77839,13 @@
         <v>2184</v>
       </c>
       <c r="E2185" t="s">
-        <v>4137</v>
+        <v>3993</v>
       </c>
       <c r="F2185" t="s">
-        <v>4138</v>
+        <v>3994</v>
       </c>
       <c r="G2185" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2185" t="s">
         <v>4</v>
@@ -77902,13 +77926,13 @@
         <v>2187</v>
       </c>
       <c r="E2188" t="s">
-        <v>129</v>
+        <v>4143</v>
       </c>
       <c r="F2188" t="s">
-        <v>130</v>
+        <v>4144</v>
       </c>
       <c r="G2188" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2188" t="s">
         <v>4</v>
@@ -77931,13 +77955,13 @@
         <v>2188</v>
       </c>
       <c r="E2189" t="s">
-        <v>4081</v>
+        <v>4145</v>
       </c>
       <c r="F2189" t="s">
-        <v>4082</v>
+        <v>4146</v>
       </c>
       <c r="G2189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2189" t="s">
         <v>4</v>
@@ -77960,13 +77984,13 @@
         <v>2189</v>
       </c>
       <c r="E2190" t="s">
-        <v>4143</v>
+        <v>4147</v>
       </c>
       <c r="F2190" t="s">
-        <v>4144</v>
+        <v>4148</v>
       </c>
       <c r="G2190" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2190" t="s">
         <v>4</v>
@@ -77989,10 +78013,10 @@
         <v>2190</v>
       </c>
       <c r="E2191" t="s">
-        <v>4145</v>
+        <v>4149</v>
       </c>
       <c r="F2191" t="s">
-        <v>4146</v>
+        <v>4150</v>
       </c>
       <c r="G2191" t="n">
         <v>1</v>
@@ -78018,13 +78042,13 @@
         <v>2191</v>
       </c>
       <c r="E2192" t="s">
-        <v>909</v>
+        <v>4151</v>
       </c>
       <c r="F2192" t="s">
-        <v>910</v>
+        <v>4152</v>
       </c>
       <c r="G2192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2192" t="s">
         <v>4</v>
@@ -78047,13 +78071,13 @@
         <v>2192</v>
       </c>
       <c r="E2193" t="s">
-        <v>4147</v>
+        <v>129</v>
       </c>
       <c r="F2193" t="s">
-        <v>4148</v>
+        <v>130</v>
       </c>
       <c r="G2193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2193" t="s">
         <v>4</v>
@@ -78076,13 +78100,13 @@
         <v>2193</v>
       </c>
       <c r="E2194" t="s">
-        <v>4149</v>
+        <v>4091</v>
       </c>
       <c r="F2194" t="s">
-        <v>4150</v>
+        <v>4092</v>
       </c>
       <c r="G2194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2194" t="s">
         <v>4</v>
@@ -78105,10 +78129,10 @@
         <v>2194</v>
       </c>
       <c r="E2195" t="s">
-        <v>4151</v>
+        <v>4153</v>
       </c>
       <c r="F2195" t="s">
-        <v>4152</v>
+        <v>4154</v>
       </c>
       <c r="G2195" t="n">
         <v>1</v>
@@ -78134,13 +78158,13 @@
         <v>2195</v>
       </c>
       <c r="E2196" t="s">
-        <v>4153</v>
+        <v>4155</v>
       </c>
       <c r="F2196" t="s">
-        <v>4154</v>
+        <v>4156</v>
       </c>
       <c r="G2196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2196" t="s">
         <v>4</v>
@@ -78163,10 +78187,10 @@
         <v>2196</v>
       </c>
       <c r="E2197" t="s">
-        <v>3987</v>
+        <v>909</v>
       </c>
       <c r="F2197" t="s">
-        <v>3988</v>
+        <v>910</v>
       </c>
       <c r="G2197" t="n">
         <v>2</v>
@@ -78192,13 +78216,13 @@
         <v>2197</v>
       </c>
       <c r="E2198" t="s">
-        <v>4155</v>
+        <v>4157</v>
       </c>
       <c r="F2198" t="s">
-        <v>4156</v>
+        <v>4158</v>
       </c>
       <c r="G2198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2198" t="s">
         <v>4</v>
@@ -78221,13 +78245,13 @@
         <v>2198</v>
       </c>
       <c r="E2199" t="s">
-        <v>3983</v>
+        <v>4159</v>
       </c>
       <c r="F2199" t="s">
-        <v>3984</v>
+        <v>4160</v>
       </c>
       <c r="G2199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2199" t="s">
         <v>4</v>
@@ -78250,13 +78274,13 @@
         <v>2199</v>
       </c>
       <c r="E2200" t="s">
-        <v>4137</v>
+        <v>4161</v>
       </c>
       <c r="F2200" t="s">
-        <v>4138</v>
+        <v>4162</v>
       </c>
       <c r="G2200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2200" t="s">
         <v>4</v>
@@ -78279,13 +78303,13 @@
         <v>2200</v>
       </c>
       <c r="E2201" t="s">
-        <v>4133</v>
+        <v>4163</v>
       </c>
       <c r="F2201" t="s">
-        <v>4134</v>
+        <v>4164</v>
       </c>
       <c r="G2201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2201" t="s">
         <v>4</v>
@@ -78308,13 +78332,13 @@
         <v>2201</v>
       </c>
       <c r="E2202" t="s">
-        <v>4157</v>
+        <v>3993</v>
       </c>
       <c r="F2202" t="s">
-        <v>4158</v>
+        <v>3994</v>
       </c>
       <c r="G2202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2202" t="s">
         <v>4</v>
@@ -78337,13 +78361,13 @@
         <v>2202</v>
       </c>
       <c r="E2203" t="s">
-        <v>121</v>
+        <v>4165</v>
       </c>
       <c r="F2203" t="s">
-        <v>122</v>
+        <v>4166</v>
       </c>
       <c r="G2203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2203" t="s">
         <v>4</v>
@@ -78366,13 +78390,13 @@
         <v>2203</v>
       </c>
       <c r="E2204" t="s">
-        <v>4159</v>
+        <v>3989</v>
       </c>
       <c r="F2204" t="s">
-        <v>4160</v>
+        <v>3990</v>
       </c>
       <c r="G2204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2204" t="s">
         <v>4</v>
@@ -78395,10 +78419,10 @@
         <v>2204</v>
       </c>
       <c r="E2205" t="s">
-        <v>4161</v>
+        <v>4147</v>
       </c>
       <c r="F2205" t="s">
-        <v>4162</v>
+        <v>4148</v>
       </c>
       <c r="G2205" t="n">
         <v>2</v>
@@ -78424,10 +78448,10 @@
         <v>2205</v>
       </c>
       <c r="E2206" t="s">
-        <v>4163</v>
+        <v>4143</v>
       </c>
       <c r="F2206" t="s">
-        <v>4164</v>
+        <v>4144</v>
       </c>
       <c r="G2206" t="n">
         <v>2</v>
@@ -78453,13 +78477,13 @@
         <v>2206</v>
       </c>
       <c r="E2207" t="s">
-        <v>4165</v>
+        <v>4167</v>
       </c>
       <c r="F2207" t="s">
-        <v>4166</v>
+        <v>4168</v>
       </c>
       <c r="G2207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2207" t="s">
         <v>4</v>
@@ -78482,10 +78506,10 @@
         <v>2207</v>
       </c>
       <c r="E2208" t="s">
-        <v>4167</v>
+        <v>121</v>
       </c>
       <c r="F2208" t="s">
-        <v>4168</v>
+        <v>122</v>
       </c>
       <c r="G2208" t="n">
         <v>1</v>
@@ -78517,7 +78541,7 @@
         <v>4170</v>
       </c>
       <c r="G2209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2209" t="s">
         <v>4</v>
@@ -78546,7 +78570,7 @@
         <v>4172</v>
       </c>
       <c r="G2210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2210" t="s">
         <v>4</v>
@@ -78575,7 +78599,7 @@
         <v>4174</v>
       </c>
       <c r="G2211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2211" t="s">
         <v>4</v>
@@ -78598,13 +78622,13 @@
         <v>2211</v>
       </c>
       <c r="E2212" t="s">
-        <v>4003</v>
+        <v>4175</v>
       </c>
       <c r="F2212" t="s">
-        <v>4004</v>
+        <v>4176</v>
       </c>
       <c r="G2212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2212" t="s">
         <v>4</v>
@@ -78627,13 +78651,13 @@
         <v>2212</v>
       </c>
       <c r="E2213" t="s">
-        <v>4175</v>
+        <v>4177</v>
       </c>
       <c r="F2213" t="s">
-        <v>4176</v>
+        <v>4178</v>
       </c>
       <c r="G2213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2213" t="s">
         <v>4</v>
@@ -78656,13 +78680,13 @@
         <v>2213</v>
       </c>
       <c r="E2214" t="s">
-        <v>4177</v>
+        <v>4179</v>
       </c>
       <c r="F2214" t="s">
-        <v>4178</v>
+        <v>4180</v>
       </c>
       <c r="G2214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2214" t="s">
         <v>4</v>
@@ -78685,13 +78709,13 @@
         <v>2214</v>
       </c>
       <c r="E2215" t="s">
-        <v>4177</v>
+        <v>4181</v>
       </c>
       <c r="F2215" t="s">
-        <v>4178</v>
+        <v>4182</v>
       </c>
       <c r="G2215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2215" t="s">
         <v>4</v>
@@ -78714,13 +78738,13 @@
         <v>2215</v>
       </c>
       <c r="E2216" t="s">
-        <v>4179</v>
+        <v>4183</v>
       </c>
       <c r="F2216" t="s">
-        <v>4180</v>
+        <v>4184</v>
       </c>
       <c r="G2216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2216" t="s">
         <v>4</v>
@@ -78743,13 +78767,13 @@
         <v>2216</v>
       </c>
       <c r="E2217" t="s">
-        <v>4181</v>
+        <v>4009</v>
       </c>
       <c r="F2217" t="s">
-        <v>4182</v>
+        <v>4010</v>
       </c>
       <c r="G2217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2217" t="s">
         <v>4</v>
@@ -78772,10 +78796,10 @@
         <v>2217</v>
       </c>
       <c r="E2218" t="s">
-        <v>2205</v>
+        <v>4185</v>
       </c>
       <c r="F2218" t="s">
-        <v>2206</v>
+        <v>4186</v>
       </c>
       <c r="G2218" t="n">
         <v>2</v>
@@ -78801,10 +78825,10 @@
         <v>2218</v>
       </c>
       <c r="E2219" t="s">
-        <v>4183</v>
+        <v>4187</v>
       </c>
       <c r="F2219" t="s">
-        <v>4184</v>
+        <v>4188</v>
       </c>
       <c r="G2219" t="n">
         <v>2</v>
@@ -78830,10 +78854,10 @@
         <v>2219</v>
       </c>
       <c r="E2220" t="s">
-        <v>4185</v>
+        <v>4187</v>
       </c>
       <c r="F2220" t="s">
-        <v>4186</v>
+        <v>4188</v>
       </c>
       <c r="G2220" t="n">
         <v>2</v>
@@ -78859,10 +78883,10 @@
         <v>2220</v>
       </c>
       <c r="E2221" t="s">
-        <v>4187</v>
+        <v>4189</v>
       </c>
       <c r="F2221" t="s">
-        <v>4188</v>
+        <v>4190</v>
       </c>
       <c r="G2221" t="n">
         <v>1</v>
@@ -78888,13 +78912,13 @@
         <v>2221</v>
       </c>
       <c r="E2222" t="s">
-        <v>4189</v>
+        <v>4191</v>
       </c>
       <c r="F2222" t="s">
-        <v>4190</v>
+        <v>4192</v>
       </c>
       <c r="G2222" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2222" t="s">
         <v>4</v>
@@ -78917,13 +78941,13 @@
         <v>2222</v>
       </c>
       <c r="E2223" t="s">
-        <v>4191</v>
+        <v>2205</v>
       </c>
       <c r="F2223" t="s">
-        <v>4192</v>
+        <v>2206</v>
       </c>
       <c r="G2223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2223" t="s">
         <v>4</v>
@@ -78952,7 +78976,7 @@
         <v>4194</v>
       </c>
       <c r="G2224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2224" t="s">
         <v>4</v>
@@ -78981,7 +79005,7 @@
         <v>4196</v>
       </c>
       <c r="G2225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2225" t="s">
         <v>4</v>
@@ -79004,13 +79028,13 @@
         <v>2225</v>
       </c>
       <c r="E2226" t="s">
-        <v>4015</v>
+        <v>4197</v>
       </c>
       <c r="F2226" t="s">
-        <v>4016</v>
+        <v>4198</v>
       </c>
       <c r="G2226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2226" t="s">
         <v>4</v>
@@ -79033,13 +79057,13 @@
         <v>2226</v>
       </c>
       <c r="E2227" t="s">
-        <v>4015</v>
+        <v>4199</v>
       </c>
       <c r="F2227" t="s">
-        <v>4016</v>
+        <v>4200</v>
       </c>
       <c r="G2227" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2227" t="s">
         <v>4</v>
@@ -79062,10 +79086,10 @@
         <v>2227</v>
       </c>
       <c r="E2228" t="s">
-        <v>4177</v>
+        <v>4201</v>
       </c>
       <c r="F2228" t="s">
-        <v>4178</v>
+        <v>4202</v>
       </c>
       <c r="G2228" t="n">
         <v>1</v>
@@ -79091,10 +79115,10 @@
         <v>2228</v>
       </c>
       <c r="E2229" t="s">
-        <v>4177</v>
+        <v>4203</v>
       </c>
       <c r="F2229" t="s">
-        <v>4178</v>
+        <v>4204</v>
       </c>
       <c r="G2229" t="n">
         <v>1</v>
@@ -79120,10 +79144,10 @@
         <v>2229</v>
       </c>
       <c r="E2230" t="s">
-        <v>4197</v>
+        <v>4205</v>
       </c>
       <c r="F2230" t="s">
-        <v>4198</v>
+        <v>4206</v>
       </c>
       <c r="G2230" t="n">
         <v>1</v>
@@ -79149,13 +79173,13 @@
         <v>2230</v>
       </c>
       <c r="E2231" t="s">
-        <v>4181</v>
+        <v>4021</v>
       </c>
       <c r="F2231" t="s">
-        <v>4182</v>
+        <v>4022</v>
       </c>
       <c r="G2231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2231" t="s">
         <v>4</v>
@@ -79178,10 +79202,10 @@
         <v>2231</v>
       </c>
       <c r="E2232" t="s">
-        <v>2205</v>
+        <v>4021</v>
       </c>
       <c r="F2232" t="s">
-        <v>2206</v>
+        <v>4022</v>
       </c>
       <c r="G2232" t="n">
         <v>1</v>
@@ -79207,10 +79231,10 @@
         <v>2232</v>
       </c>
       <c r="E2233" t="s">
-        <v>4199</v>
+        <v>4187</v>
       </c>
       <c r="F2233" t="s">
-        <v>4200</v>
+        <v>4188</v>
       </c>
       <c r="G2233" t="n">
         <v>1</v>
@@ -79236,10 +79260,10 @@
         <v>2233</v>
       </c>
       <c r="E2234" t="s">
-        <v>4183</v>
+        <v>4187</v>
       </c>
       <c r="F2234" t="s">
-        <v>4184</v>
+        <v>4188</v>
       </c>
       <c r="G2234" t="n">
         <v>1</v>
@@ -79265,10 +79289,10 @@
         <v>2234</v>
       </c>
       <c r="E2235" t="s">
-        <v>4185</v>
+        <v>4207</v>
       </c>
       <c r="F2235" t="s">
-        <v>4186</v>
+        <v>4208</v>
       </c>
       <c r="G2235" t="n">
         <v>1</v>
@@ -79294,10 +79318,10 @@
         <v>2235</v>
       </c>
       <c r="E2236" t="s">
-        <v>3987</v>
+        <v>4191</v>
       </c>
       <c r="F2236" t="s">
-        <v>3988</v>
+        <v>4192</v>
       </c>
       <c r="G2236" t="n">
         <v>1</v>
@@ -79323,10 +79347,10 @@
         <v>2236</v>
       </c>
       <c r="E2237" t="s">
-        <v>3985</v>
+        <v>2205</v>
       </c>
       <c r="F2237" t="s">
-        <v>3986</v>
+        <v>2206</v>
       </c>
       <c r="G2237" t="n">
         <v>1</v>
@@ -79352,10 +79376,10 @@
         <v>2237</v>
       </c>
       <c r="E2238" t="s">
-        <v>3983</v>
+        <v>4209</v>
       </c>
       <c r="F2238" t="s">
-        <v>3984</v>
+        <v>4210</v>
       </c>
       <c r="G2238" t="n">
         <v>1</v>
@@ -79381,10 +79405,10 @@
         <v>2238</v>
       </c>
       <c r="E2239" t="s">
-        <v>4137</v>
+        <v>4193</v>
       </c>
       <c r="F2239" t="s">
-        <v>4138</v>
+        <v>4194</v>
       </c>
       <c r="G2239" t="n">
         <v>1</v>
@@ -79410,10 +79434,10 @@
         <v>2239</v>
       </c>
       <c r="E2240" t="s">
-        <v>4133</v>
+        <v>4195</v>
       </c>
       <c r="F2240" t="s">
-        <v>4134</v>
+        <v>4196</v>
       </c>
       <c r="G2240" t="n">
         <v>1</v>
@@ -79439,10 +79463,10 @@
         <v>2240</v>
       </c>
       <c r="E2241" t="s">
-        <v>909</v>
+        <v>3993</v>
       </c>
       <c r="F2241" t="s">
-        <v>910</v>
+        <v>3994</v>
       </c>
       <c r="G2241" t="n">
         <v>1</v>
@@ -79468,10 +79492,10 @@
         <v>2241</v>
       </c>
       <c r="E2242" t="s">
-        <v>4081</v>
+        <v>3991</v>
       </c>
       <c r="F2242" t="s">
-        <v>4082</v>
+        <v>3992</v>
       </c>
       <c r="G2242" t="n">
         <v>1</v>
@@ -79497,10 +79521,10 @@
         <v>2242</v>
       </c>
       <c r="E2243" t="s">
-        <v>4201</v>
+        <v>3989</v>
       </c>
       <c r="F2243" t="s">
-        <v>4202</v>
+        <v>3990</v>
       </c>
       <c r="G2243" t="n">
         <v>1</v>
@@ -79526,10 +79550,10 @@
         <v>2243</v>
       </c>
       <c r="E2244" t="s">
-        <v>4161</v>
+        <v>4147</v>
       </c>
       <c r="F2244" t="s">
-        <v>4162</v>
+        <v>4148</v>
       </c>
       <c r="G2244" t="n">
         <v>1</v>
@@ -79555,10 +79579,10 @@
         <v>2244</v>
       </c>
       <c r="E2245" t="s">
-        <v>4163</v>
+        <v>4143</v>
       </c>
       <c r="F2245" t="s">
-        <v>4164</v>
+        <v>4144</v>
       </c>
       <c r="G2245" t="n">
         <v>1</v>
@@ -79584,10 +79608,10 @@
         <v>2245</v>
       </c>
       <c r="E2246" t="s">
-        <v>4165</v>
+        <v>909</v>
       </c>
       <c r="F2246" t="s">
-        <v>4166</v>
+        <v>910</v>
       </c>
       <c r="G2246" t="n">
         <v>1</v>
@@ -79613,13 +79637,13 @@
         <v>2246</v>
       </c>
       <c r="E2247" t="s">
-        <v>4203</v>
+        <v>4091</v>
       </c>
       <c r="F2247" t="s">
-        <v>4204</v>
+        <v>4092</v>
       </c>
       <c r="G2247" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2247" t="s">
         <v>4</v>
@@ -79642,13 +79666,13 @@
         <v>2247</v>
       </c>
       <c r="E2248" t="s">
-        <v>4205</v>
+        <v>4211</v>
       </c>
       <c r="F2248" t="s">
-        <v>4206</v>
+        <v>4212</v>
       </c>
       <c r="G2248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2248" t="s">
         <v>4</v>
@@ -79671,13 +79695,13 @@
         <v>2248</v>
       </c>
       <c r="E2249" t="s">
-        <v>4207</v>
+        <v>4171</v>
       </c>
       <c r="F2249" t="s">
-        <v>4208</v>
+        <v>4172</v>
       </c>
       <c r="G2249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2249" t="s">
         <v>4</v>
@@ -79700,10 +79724,10 @@
         <v>2249</v>
       </c>
       <c r="E2250" t="s">
-        <v>4209</v>
+        <v>4173</v>
       </c>
       <c r="F2250" t="s">
-        <v>4210</v>
+        <v>4174</v>
       </c>
       <c r="G2250" t="n">
         <v>1</v>
@@ -79729,10 +79753,10 @@
         <v>2250</v>
       </c>
       <c r="E2251" t="s">
-        <v>4211</v>
+        <v>4175</v>
       </c>
       <c r="F2251" t="s">
-        <v>4212</v>
+        <v>4176</v>
       </c>
       <c r="G2251" t="n">
         <v>1</v>
@@ -79764,7 +79788,7 @@
         <v>4214</v>
       </c>
       <c r="G2252" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2252" t="s">
         <v>4</v>
@@ -79793,7 +79817,7 @@
         <v>4216</v>
       </c>
       <c r="G2253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2253" t="s">
         <v>4</v>
@@ -79822,7 +79846,7 @@
         <v>4218</v>
       </c>
       <c r="G2254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2254" t="s">
         <v>4</v>
@@ -79874,13 +79898,13 @@
         <v>2255</v>
       </c>
       <c r="E2256" t="s">
-        <v>1269</v>
+        <v>4221</v>
       </c>
       <c r="F2256" t="s">
-        <v>1270</v>
+        <v>4222</v>
       </c>
       <c r="G2256" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2256" t="s">
         <v>4</v>
@@ -79903,10 +79927,10 @@
         <v>2256</v>
       </c>
       <c r="E2257" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="F2257" t="s">
-        <v>4222</v>
+        <v>4224</v>
       </c>
       <c r="G2257" t="n">
         <v>1</v>
@@ -79932,10 +79956,10 @@
         <v>2257</v>
       </c>
       <c r="E2258" t="s">
-        <v>4223</v>
+        <v>4225</v>
       </c>
       <c r="F2258" t="s">
-        <v>4224</v>
+        <v>4226</v>
       </c>
       <c r="G2258" t="n">
         <v>1</v>
@@ -79961,10 +79985,10 @@
         <v>2258</v>
       </c>
       <c r="E2259" t="s">
-        <v>4225</v>
+        <v>4227</v>
       </c>
       <c r="F2259" t="s">
-        <v>4226</v>
+        <v>4228</v>
       </c>
       <c r="G2259" t="n">
         <v>1</v>
@@ -79990,10 +80014,10 @@
         <v>2259</v>
       </c>
       <c r="E2260" t="s">
-        <v>4227</v>
+        <v>4229</v>
       </c>
       <c r="F2260" t="s">
-        <v>4228</v>
+        <v>4230</v>
       </c>
       <c r="G2260" t="n">
         <v>1</v>
@@ -80019,13 +80043,13 @@
         <v>2260</v>
       </c>
       <c r="E2261" t="s">
-        <v>4229</v>
+        <v>1269</v>
       </c>
       <c r="F2261" t="s">
-        <v>4230</v>
+        <v>1270</v>
       </c>
       <c r="G2261" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2261" t="s">
         <v>4</v>
@@ -80112,7 +80136,7 @@
         <v>4236</v>
       </c>
       <c r="G2264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2264" t="s">
         <v>4</v>
@@ -80141,7 +80165,7 @@
         <v>4238</v>
       </c>
       <c r="G2265" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2265" t="s">
         <v>4</v>
@@ -80170,7 +80194,7 @@
         <v>4240</v>
       </c>
       <c r="G2266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2266" t="s">
         <v>4</v>
@@ -80199,7 +80223,7 @@
         <v>4242</v>
       </c>
       <c r="G2267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2267" t="s">
         <v>4</v>
@@ -80222,10 +80246,10 @@
         <v>2267</v>
       </c>
       <c r="E2268" t="s">
-        <v>4203</v>
+        <v>4243</v>
       </c>
       <c r="F2268" t="s">
-        <v>4204</v>
+        <v>4244</v>
       </c>
       <c r="G2268" t="n">
         <v>1</v>
@@ -80251,10 +80275,10 @@
         <v>2268</v>
       </c>
       <c r="E2269" t="s">
-        <v>4243</v>
+        <v>4245</v>
       </c>
       <c r="F2269" t="s">
-        <v>4244</v>
+        <v>4246</v>
       </c>
       <c r="G2269" t="n">
         <v>3</v>
@@ -80280,13 +80304,13 @@
         <v>2269</v>
       </c>
       <c r="E2270" t="s">
-        <v>4245</v>
+        <v>4247</v>
       </c>
       <c r="F2270" t="s">
-        <v>4246</v>
+        <v>4248</v>
       </c>
       <c r="G2270" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2270" t="s">
         <v>4</v>
@@ -80309,10 +80333,10 @@
         <v>2270</v>
       </c>
       <c r="E2271" t="s">
-        <v>4247</v>
+        <v>4249</v>
       </c>
       <c r="F2271" t="s">
-        <v>4248</v>
+        <v>4250</v>
       </c>
       <c r="G2271" t="n">
         <v>2</v>
@@ -80338,13 +80362,13 @@
         <v>2271</v>
       </c>
       <c r="E2272" t="s">
-        <v>4249</v>
+        <v>4251</v>
       </c>
       <c r="F2272" t="s">
-        <v>4250</v>
+        <v>4252</v>
       </c>
       <c r="G2272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2272" t="s">
         <v>4</v>
@@ -80367,10 +80391,10 @@
         <v>2272</v>
       </c>
       <c r="E2273" t="s">
-        <v>4251</v>
+        <v>4213</v>
       </c>
       <c r="F2273" t="s">
-        <v>4252</v>
+        <v>4214</v>
       </c>
       <c r="G2273" t="n">
         <v>1</v>
@@ -80396,13 +80420,13 @@
         <v>2273</v>
       </c>
       <c r="E2274" t="s">
-        <v>4207</v>
+        <v>4253</v>
       </c>
       <c r="F2274" t="s">
-        <v>4208</v>
+        <v>4254</v>
       </c>
       <c r="G2274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2274" t="s">
         <v>4</v>
@@ -80425,10 +80449,10 @@
         <v>2274</v>
       </c>
       <c r="E2275" t="s">
-        <v>1271</v>
+        <v>4255</v>
       </c>
       <c r="F2275" t="s">
-        <v>1272</v>
+        <v>4256</v>
       </c>
       <c r="G2275" t="n">
         <v>1</v>
@@ -80454,13 +80478,13 @@
         <v>2275</v>
       </c>
       <c r="E2276" t="s">
-        <v>4253</v>
+        <v>4257</v>
       </c>
       <c r="F2276" t="s">
-        <v>4254</v>
+        <v>4258</v>
       </c>
       <c r="G2276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2276" t="s">
         <v>4</v>
@@ -80483,13 +80507,13 @@
         <v>2276</v>
       </c>
       <c r="E2277" t="s">
-        <v>4255</v>
+        <v>4259</v>
       </c>
       <c r="F2277" t="s">
-        <v>4256</v>
+        <v>4260</v>
       </c>
       <c r="G2277" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2277" t="s">
         <v>4</v>
@@ -80512,13 +80536,13 @@
         <v>2277</v>
       </c>
       <c r="E2278" t="s">
-        <v>4257</v>
+        <v>4261</v>
       </c>
       <c r="F2278" t="s">
-        <v>4258</v>
+        <v>4262</v>
       </c>
       <c r="G2278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2278" t="s">
         <v>4</v>
@@ -80541,13 +80565,13 @@
         <v>2278</v>
       </c>
       <c r="E2279" t="s">
-        <v>4259</v>
+        <v>4217</v>
       </c>
       <c r="F2279" t="s">
-        <v>4260</v>
+        <v>4218</v>
       </c>
       <c r="G2279" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2279" t="s">
         <v>4</v>
@@ -80570,13 +80594,13 @@
         <v>2279</v>
       </c>
       <c r="E2280" t="s">
-        <v>4261</v>
+        <v>1271</v>
       </c>
       <c r="F2280" t="s">
-        <v>4262</v>
+        <v>1272</v>
       </c>
       <c r="G2280" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2280" t="s">
         <v>4</v>
@@ -80634,7 +80658,7 @@
         <v>4266</v>
       </c>
       <c r="G2282" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2282" t="s">
         <v>4</v>
@@ -80663,7 +80687,7 @@
         <v>4268</v>
       </c>
       <c r="G2283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2283" t="s">
         <v>4</v>
@@ -80692,7 +80716,7 @@
         <v>4270</v>
       </c>
       <c r="G2284" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2284" t="s">
         <v>4</v>
@@ -80721,7 +80745,7 @@
         <v>4272</v>
       </c>
       <c r="G2285" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2285" t="s">
         <v>4</v>
@@ -80750,7 +80774,7 @@
         <v>4274</v>
       </c>
       <c r="G2286" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2286" t="s">
         <v>4</v>
@@ -80779,7 +80803,7 @@
         <v>4276</v>
       </c>
       <c r="G2287" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2287" t="s">
         <v>4</v>
@@ -80808,7 +80832,7 @@
         <v>4278</v>
       </c>
       <c r="G2288" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2288" t="s">
         <v>4</v>
@@ -80837,7 +80861,7 @@
         <v>4280</v>
       </c>
       <c r="G2289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2289" t="s">
         <v>4</v>
@@ -80860,10 +80884,10 @@
         <v>2289</v>
       </c>
       <c r="E2290" t="s">
-        <v>4173</v>
+        <v>4281</v>
       </c>
       <c r="F2290" t="s">
-        <v>4174</v>
+        <v>4282</v>
       </c>
       <c r="G2290" t="n">
         <v>3</v>
@@ -80889,13 +80913,13 @@
         <v>2290</v>
       </c>
       <c r="E2291" t="s">
-        <v>4281</v>
+        <v>4283</v>
       </c>
       <c r="F2291" t="s">
-        <v>4282</v>
+        <v>4284</v>
       </c>
       <c r="G2291" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2291" t="s">
         <v>4</v>
@@ -80918,13 +80942,13 @@
         <v>2291</v>
       </c>
       <c r="E2292" t="s">
-        <v>3985</v>
+        <v>4285</v>
       </c>
       <c r="F2292" t="s">
-        <v>3986</v>
+        <v>4286</v>
       </c>
       <c r="G2292" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2292" t="s">
         <v>4</v>
@@ -80947,13 +80971,13 @@
         <v>2292</v>
       </c>
       <c r="E2293" t="s">
-        <v>4181</v>
+        <v>4287</v>
       </c>
       <c r="F2293" t="s">
-        <v>4182</v>
+        <v>4288</v>
       </c>
       <c r="G2293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2293" t="s">
         <v>4</v>
@@ -80976,13 +81000,13 @@
         <v>2293</v>
       </c>
       <c r="E2294" t="s">
-        <v>4191</v>
+        <v>4289</v>
       </c>
       <c r="F2294" t="s">
-        <v>4192</v>
+        <v>4290</v>
       </c>
       <c r="G2294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2294" t="s">
         <v>4</v>
@@ -81005,10 +81029,10 @@
         <v>2294</v>
       </c>
       <c r="E2295" t="s">
-        <v>4283</v>
+        <v>4183</v>
       </c>
       <c r="F2295" t="s">
-        <v>4284</v>
+        <v>4184</v>
       </c>
       <c r="G2295" t="n">
         <v>3</v>
@@ -81034,13 +81058,13 @@
         <v>2295</v>
       </c>
       <c r="E2296" t="s">
-        <v>4285</v>
+        <v>4291</v>
       </c>
       <c r="F2296" t="s">
-        <v>4286</v>
+        <v>4292</v>
       </c>
       <c r="G2296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2296" t="s">
         <v>4</v>
@@ -81063,13 +81087,13 @@
         <v>2296</v>
       </c>
       <c r="E2297" t="s">
-        <v>4287</v>
+        <v>3991</v>
       </c>
       <c r="F2297" t="s">
-        <v>4288</v>
+        <v>3992</v>
       </c>
       <c r="G2297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2297" t="s">
         <v>4</v>
@@ -81092,13 +81116,13 @@
         <v>2297</v>
       </c>
       <c r="E2298" t="s">
-        <v>4289</v>
+        <v>4191</v>
       </c>
       <c r="F2298" t="s">
-        <v>4290</v>
+        <v>4192</v>
       </c>
       <c r="G2298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2298" t="s">
         <v>4</v>
@@ -81121,13 +81145,13 @@
         <v>2298</v>
       </c>
       <c r="E2299" t="s">
-        <v>4291</v>
+        <v>4201</v>
       </c>
       <c r="F2299" t="s">
-        <v>4292</v>
+        <v>4202</v>
       </c>
       <c r="G2299" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2299" t="s">
         <v>4</v>
@@ -81156,7 +81180,7 @@
         <v>4294</v>
       </c>
       <c r="G2300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2300" t="s">
         <v>4</v>
@@ -81243,7 +81267,7 @@
         <v>4300</v>
       </c>
       <c r="G2303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2303" t="s">
         <v>4</v>
@@ -81272,7 +81296,7 @@
         <v>4302</v>
       </c>
       <c r="G2304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2304" t="s">
         <v>4</v>
@@ -81301,7 +81325,7 @@
         <v>4304</v>
       </c>
       <c r="G2305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2305" t="s">
         <v>4</v>
@@ -81359,7 +81383,7 @@
         <v>4308</v>
       </c>
       <c r="G2307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2307" t="s">
         <v>4</v>
@@ -81388,7 +81412,7 @@
         <v>4310</v>
       </c>
       <c r="G2308" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2308" t="s">
         <v>4</v>
@@ -81446,7 +81470,7 @@
         <v>4314</v>
       </c>
       <c r="G2310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2310" t="s">
         <v>4</v>
@@ -81469,10 +81493,10 @@
         <v>2310</v>
       </c>
       <c r="E2311" t="s">
-        <v>945</v>
+        <v>4315</v>
       </c>
       <c r="F2311" t="s">
-        <v>946</v>
+        <v>4316</v>
       </c>
       <c r="G2311" t="n">
         <v>1</v>
@@ -81498,13 +81522,13 @@
         <v>2311</v>
       </c>
       <c r="E2312" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
       <c r="F2312" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
       <c r="G2312" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2312" t="s">
         <v>4</v>
@@ -81527,10 +81551,10 @@
         <v>2312</v>
       </c>
       <c r="E2313" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="F2313" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="G2313" t="n">
         <v>1</v>
@@ -81556,13 +81580,13 @@
         <v>2313</v>
       </c>
       <c r="E2314" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
       <c r="F2314" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
       <c r="G2314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2314" t="s">
         <v>4</v>
@@ -81585,13 +81609,13 @@
         <v>2314</v>
       </c>
       <c r="E2315" t="s">
-        <v>4321</v>
+        <v>4323</v>
       </c>
       <c r="F2315" t="s">
-        <v>4322</v>
+        <v>4324</v>
       </c>
       <c r="G2315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2315" t="s">
         <v>4</v>
@@ -81614,10 +81638,10 @@
         <v>2315</v>
       </c>
       <c r="E2316" t="s">
-        <v>4323</v>
+        <v>945</v>
       </c>
       <c r="F2316" t="s">
-        <v>4324</v>
+        <v>946</v>
       </c>
       <c r="G2316" t="n">
         <v>1</v>
@@ -81649,7 +81673,7 @@
         <v>4326</v>
       </c>
       <c r="G2317" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2317" t="s">
         <v>4</v>
@@ -81736,7 +81760,7 @@
         <v>4332</v>
       </c>
       <c r="G2320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2320" t="s">
         <v>4</v>
@@ -81794,7 +81818,7 @@
         <v>4336</v>
       </c>
       <c r="G2322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2322" t="s">
         <v>4</v>
@@ -81904,13 +81928,13 @@
         <v>2325</v>
       </c>
       <c r="E2326" t="s">
-        <v>1335</v>
+        <v>4343</v>
       </c>
       <c r="F2326" t="s">
-        <v>1336</v>
+        <v>4344</v>
       </c>
       <c r="G2326" t="n">
-        <v>679</v>
+        <v>1</v>
       </c>
       <c r="H2326" t="s">
         <v>4</v>
@@ -81933,13 +81957,13 @@
         <v>2326</v>
       </c>
       <c r="E2327" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="F2327" t="s">
-        <v>4344</v>
+        <v>4346</v>
       </c>
       <c r="G2327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2327" t="s">
         <v>4</v>
@@ -81962,10 +81986,10 @@
         <v>2327</v>
       </c>
       <c r="E2328" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="F2328" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
       <c r="G2328" t="n">
         <v>1</v>
@@ -81991,10 +82015,10 @@
         <v>2328</v>
       </c>
       <c r="E2329" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
       <c r="F2329" t="s">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="G2329" t="n">
         <v>1</v>
@@ -82020,13 +82044,13 @@
         <v>2329</v>
       </c>
       <c r="E2330" t="s">
-        <v>4349</v>
+        <v>4351</v>
       </c>
       <c r="F2330" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
       <c r="G2330" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2330" t="s">
         <v>4</v>
@@ -82049,13 +82073,13 @@
         <v>2330</v>
       </c>
       <c r="E2331" t="s">
-        <v>4351</v>
+        <v>1335</v>
       </c>
       <c r="F2331" t="s">
-        <v>4352</v>
+        <v>1336</v>
       </c>
       <c r="G2331" t="n">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="H2331" t="s">
         <v>4</v>
@@ -82171,7 +82195,7 @@
         <v>4360</v>
       </c>
       <c r="G2335" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2335" t="s">
         <v>4</v>
@@ -82339,13 +82363,13 @@
         <v>2340</v>
       </c>
       <c r="E2341" t="s">
-        <v>195</v>
+        <v>4371</v>
       </c>
       <c r="F2341" t="s">
-        <v>196</v>
+        <v>4372</v>
       </c>
       <c r="G2341" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H2341" t="s">
         <v>4</v>
@@ -82368,13 +82392,13 @@
         <v>2341</v>
       </c>
       <c r="E2342" t="s">
-        <v>1277</v>
+        <v>4373</v>
       </c>
       <c r="F2342" t="s">
-        <v>1278</v>
+        <v>4374</v>
       </c>
       <c r="G2342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2342" t="s">
         <v>4</v>
@@ -82397,13 +82421,13 @@
         <v>2342</v>
       </c>
       <c r="E2343" t="s">
-        <v>4371</v>
+        <v>4375</v>
       </c>
       <c r="F2343" t="s">
-        <v>4372</v>
+        <v>4376</v>
       </c>
       <c r="G2343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2343" t="s">
         <v>4</v>
@@ -82426,10 +82450,10 @@
         <v>2343</v>
       </c>
       <c r="E2344" t="s">
-        <v>4373</v>
+        <v>4377</v>
       </c>
       <c r="F2344" t="s">
-        <v>4374</v>
+        <v>4378</v>
       </c>
       <c r="G2344" t="n">
         <v>1</v>
@@ -82455,13 +82479,13 @@
         <v>2344</v>
       </c>
       <c r="E2345" t="s">
-        <v>4375</v>
+        <v>4379</v>
       </c>
       <c r="F2345" t="s">
-        <v>4376</v>
+        <v>4380</v>
       </c>
       <c r="G2345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2345" t="s">
         <v>4</v>
@@ -82484,13 +82508,13 @@
         <v>2345</v>
       </c>
       <c r="E2346" t="s">
-        <v>4377</v>
+        <v>195</v>
       </c>
       <c r="F2346" t="s">
-        <v>4378</v>
+        <v>196</v>
       </c>
       <c r="G2346" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H2346" t="s">
         <v>4</v>
@@ -82513,13 +82537,13 @@
         <v>2346</v>
       </c>
       <c r="E2347" t="s">
-        <v>4379</v>
+        <v>1277</v>
       </c>
       <c r="F2347" t="s">
-        <v>4380</v>
+        <v>1278</v>
       </c>
       <c r="G2347" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2347" t="s">
         <v>4</v>
@@ -82548,7 +82572,7 @@
         <v>4382</v>
       </c>
       <c r="G2348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2348" t="s">
         <v>4</v>
@@ -82577,7 +82601,7 @@
         <v>4384</v>
       </c>
       <c r="G2349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2349" t="s">
         <v>4</v>
@@ -82635,7 +82659,7 @@
         <v>4388</v>
       </c>
       <c r="G2351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2351" t="s">
         <v>4</v>
@@ -82664,7 +82688,7 @@
         <v>4390</v>
       </c>
       <c r="G2352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2352" t="s">
         <v>4</v>
@@ -82722,7 +82746,7 @@
         <v>4394</v>
       </c>
       <c r="G2354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2354" t="s">
         <v>4</v>
@@ -82809,7 +82833,7 @@
         <v>4400</v>
       </c>
       <c r="G2357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2357" t="s">
         <v>4</v>
@@ -82838,7 +82862,7 @@
         <v>4402</v>
       </c>
       <c r="G2358" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2358" t="s">
         <v>4</v>
@@ -82896,7 +82920,7 @@
         <v>4406</v>
       </c>
       <c r="G2360" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2360" t="s">
         <v>4</v>
@@ -82948,10 +82972,10 @@
         <v>2361</v>
       </c>
       <c r="E2362" t="s">
-        <v>3997</v>
+        <v>4409</v>
       </c>
       <c r="F2362" t="s">
-        <v>3998</v>
+        <v>4410</v>
       </c>
       <c r="G2362" t="n">
         <v>2</v>
@@ -82977,10 +83001,10 @@
         <v>2362</v>
       </c>
       <c r="E2363" t="s">
-        <v>4409</v>
+        <v>4411</v>
       </c>
       <c r="F2363" t="s">
-        <v>4410</v>
+        <v>4412</v>
       </c>
       <c r="G2363" t="n">
         <v>3</v>
@@ -83006,10 +83030,10 @@
         <v>2363</v>
       </c>
       <c r="E2364" t="s">
-        <v>4411</v>
+        <v>4413</v>
       </c>
       <c r="F2364" t="s">
-        <v>4412</v>
+        <v>4414</v>
       </c>
       <c r="G2364" t="n">
         <v>1</v>
@@ -83035,13 +83059,13 @@
         <v>2364</v>
       </c>
       <c r="E2365" t="s">
-        <v>4413</v>
+        <v>4415</v>
       </c>
       <c r="F2365" t="s">
-        <v>4414</v>
+        <v>4416</v>
       </c>
       <c r="G2365" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2365" t="s">
         <v>4</v>
@@ -83064,10 +83088,10 @@
         <v>2365</v>
       </c>
       <c r="E2366" t="s">
-        <v>4415</v>
+        <v>4417</v>
       </c>
       <c r="F2366" t="s">
-        <v>4416</v>
+        <v>4418</v>
       </c>
       <c r="G2366" t="n">
         <v>1</v>
@@ -83093,13 +83117,13 @@
         <v>2366</v>
       </c>
       <c r="E2367" t="s">
-        <v>4417</v>
+        <v>4003</v>
       </c>
       <c r="F2367" t="s">
-        <v>4418</v>
+        <v>4004</v>
       </c>
       <c r="G2367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2367" t="s">
         <v>4</v>
@@ -83128,7 +83152,7 @@
         <v>4420</v>
       </c>
       <c r="G2368" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2368" t="s">
         <v>4</v>
@@ -83157,7 +83181,7 @@
         <v>4422</v>
       </c>
       <c r="G2369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2369" t="s">
         <v>4</v>
@@ -83215,7 +83239,7 @@
         <v>4426</v>
       </c>
       <c r="G2371" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2371" t="s">
         <v>4</v>
@@ -83273,7 +83297,7 @@
         <v>4430</v>
       </c>
       <c r="G2373" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2373" t="s">
         <v>4</v>
@@ -83302,7 +83326,7 @@
         <v>4432</v>
       </c>
       <c r="G2374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2374" t="s">
         <v>4</v>
@@ -83360,7 +83384,7 @@
         <v>4436</v>
       </c>
       <c r="G2376" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2376" t="s">
         <v>4</v>
@@ -83383,10 +83407,10 @@
         <v>2376</v>
       </c>
       <c r="E2377" t="s">
-        <v>4269</v>
+        <v>4437</v>
       </c>
       <c r="F2377" t="s">
-        <v>4270</v>
+        <v>4438</v>
       </c>
       <c r="G2377" t="n">
         <v>1</v>
@@ -83412,13 +83436,13 @@
         <v>2377</v>
       </c>
       <c r="E2378" t="s">
-        <v>4437</v>
+        <v>4439</v>
       </c>
       <c r="F2378" t="s">
-        <v>4438</v>
+        <v>4440</v>
       </c>
       <c r="G2378" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H2378" t="s">
         <v>4</v>
@@ -83441,10 +83465,10 @@
         <v>2378</v>
       </c>
       <c r="E2379" t="s">
-        <v>4439</v>
+        <v>4441</v>
       </c>
       <c r="F2379" t="s">
-        <v>4440</v>
+        <v>4442</v>
       </c>
       <c r="G2379" t="n">
         <v>1</v>
@@ -83470,13 +83494,13 @@
         <v>2379</v>
       </c>
       <c r="E2380" t="s">
-        <v>4441</v>
+        <v>4443</v>
       </c>
       <c r="F2380" t="s">
-        <v>4442</v>
+        <v>4444</v>
       </c>
       <c r="G2380" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2380" t="s">
         <v>4</v>
@@ -83499,10 +83523,10 @@
         <v>2380</v>
       </c>
       <c r="E2381" t="s">
-        <v>4443</v>
+        <v>4445</v>
       </c>
       <c r="F2381" t="s">
-        <v>4444</v>
+        <v>4446</v>
       </c>
       <c r="G2381" t="n">
         <v>1</v>
@@ -83528,10 +83552,10 @@
         <v>2381</v>
       </c>
       <c r="E2382" t="s">
-        <v>4445</v>
+        <v>4279</v>
       </c>
       <c r="F2382" t="s">
-        <v>4446</v>
+        <v>4280</v>
       </c>
       <c r="G2382" t="n">
         <v>1</v>
@@ -83557,13 +83581,13 @@
         <v>2382</v>
       </c>
       <c r="E2383" t="s">
-        <v>1997</v>
+        <v>4447</v>
       </c>
       <c r="F2383" t="s">
-        <v>1998</v>
+        <v>4448</v>
       </c>
       <c r="G2383" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2383" t="s">
         <v>4</v>
@@ -83586,10 +83610,10 @@
         <v>2383</v>
       </c>
       <c r="E2384" t="s">
-        <v>4447</v>
+        <v>4449</v>
       </c>
       <c r="F2384" t="s">
-        <v>4448</v>
+        <v>4450</v>
       </c>
       <c r="G2384" t="n">
         <v>1</v>
@@ -83615,13 +83639,13 @@
         <v>2384</v>
       </c>
       <c r="E2385" t="s">
-        <v>4449</v>
+        <v>4451</v>
       </c>
       <c r="F2385" t="s">
-        <v>4450</v>
+        <v>4452</v>
       </c>
       <c r="G2385" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2385" t="s">
         <v>4</v>
@@ -83644,13 +83668,13 @@
         <v>2385</v>
       </c>
       <c r="E2386" t="s">
-        <v>4451</v>
+        <v>4453</v>
       </c>
       <c r="F2386" t="s">
-        <v>4452</v>
+        <v>4454</v>
       </c>
       <c r="G2386" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2386" t="s">
         <v>4</v>
@@ -83673,10 +83697,10 @@
         <v>2386</v>
       </c>
       <c r="E2387" t="s">
-        <v>4453</v>
+        <v>4455</v>
       </c>
       <c r="F2387" t="s">
-        <v>4454</v>
+        <v>4456</v>
       </c>
       <c r="G2387" t="n">
         <v>1</v>
@@ -83702,13 +83726,13 @@
         <v>2387</v>
       </c>
       <c r="E2388" t="s">
-        <v>4455</v>
+        <v>1997</v>
       </c>
       <c r="F2388" t="s">
-        <v>4456</v>
+        <v>1998</v>
       </c>
       <c r="G2388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2388" t="s">
         <v>4</v>
@@ -83795,7 +83819,7 @@
         <v>4462</v>
       </c>
       <c r="G2391" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2391" t="s">
         <v>4</v>
@@ -83824,7 +83848,7 @@
         <v>4464</v>
       </c>
       <c r="G2392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2392" t="s">
         <v>4</v>
@@ -83847,10 +83871,10 @@
         <v>2392</v>
       </c>
       <c r="E2393" t="s">
-        <v>4249</v>
+        <v>4465</v>
       </c>
       <c r="F2393" t="s">
-        <v>4250</v>
+        <v>4466</v>
       </c>
       <c r="G2393" t="n">
         <v>2</v>
@@ -83876,13 +83900,13 @@
         <v>2393</v>
       </c>
       <c r="E2394" t="s">
-        <v>4465</v>
+        <v>4467</v>
       </c>
       <c r="F2394" t="s">
-        <v>4466</v>
+        <v>4468</v>
       </c>
       <c r="G2394" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2394" t="s">
         <v>4</v>
@@ -83905,13 +83929,13 @@
         <v>2394</v>
       </c>
       <c r="E2395" t="s">
-        <v>4467</v>
+        <v>4469</v>
       </c>
       <c r="F2395" t="s">
-        <v>4468</v>
+        <v>4470</v>
       </c>
       <c r="G2395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2395" t="s">
         <v>4</v>
@@ -83934,10 +83958,10 @@
         <v>2395</v>
       </c>
       <c r="E2396" t="s">
-        <v>4469</v>
+        <v>4471</v>
       </c>
       <c r="F2396" t="s">
-        <v>4470</v>
+        <v>4472</v>
       </c>
       <c r="G2396" t="n">
         <v>1</v>
@@ -83963,10 +83987,10 @@
         <v>2396</v>
       </c>
       <c r="E2397" t="s">
-        <v>4471</v>
+        <v>4473</v>
       </c>
       <c r="F2397" t="s">
-        <v>4472</v>
+        <v>4474</v>
       </c>
       <c r="G2397" t="n">
         <v>2</v>
@@ -83992,10 +84016,10 @@
         <v>2397</v>
       </c>
       <c r="E2398" t="s">
-        <v>4473</v>
+        <v>4259</v>
       </c>
       <c r="F2398" t="s">
-        <v>4474</v>
+        <v>4260</v>
       </c>
       <c r="G2398" t="n">
         <v>2</v>
@@ -84027,7 +84051,7 @@
         <v>4476</v>
       </c>
       <c r="G2399" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2399" t="s">
         <v>4</v>
@@ -84056,7 +84080,7 @@
         <v>4478</v>
       </c>
       <c r="G2400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2400" t="s">
         <v>4</v>
@@ -84085,7 +84109,7 @@
         <v>4480</v>
       </c>
       <c r="G2401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2401" t="s">
         <v>4</v>
@@ -84114,7 +84138,7 @@
         <v>4482</v>
       </c>
       <c r="G2402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2402" t="s">
         <v>4</v>
@@ -84143,7 +84167,7 @@
         <v>4484</v>
       </c>
       <c r="G2403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2403" t="s">
         <v>4</v>
@@ -84172,7 +84196,7 @@
         <v>4486</v>
       </c>
       <c r="G2404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2404" t="s">
         <v>4</v>
@@ -84230,7 +84254,7 @@
         <v>4490</v>
       </c>
       <c r="G2406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2406" t="s">
         <v>4</v>
@@ -84433,7 +84457,7 @@
         <v>4504</v>
       </c>
       <c r="G2413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2413" t="s">
         <v>4</v>
@@ -84578,7 +84602,7 @@
         <v>4514</v>
       </c>
       <c r="G2418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2418" t="s">
         <v>4</v>
@@ -84636,7 +84660,7 @@
         <v>4518</v>
       </c>
       <c r="G2420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2420" t="s">
         <v>4</v>
@@ -84781,7 +84805,7 @@
         <v>4528</v>
       </c>
       <c r="G2425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2425" t="s">
         <v>4</v>
@@ -84868,7 +84892,7 @@
         <v>4534</v>
       </c>
       <c r="G2428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2428" t="s">
         <v>4</v>
@@ -84949,10 +84973,10 @@
         <v>2430</v>
       </c>
       <c r="E2431" t="s">
-        <v>3997</v>
+        <v>4539</v>
       </c>
       <c r="F2431" t="s">
-        <v>3998</v>
+        <v>4540</v>
       </c>
       <c r="G2431" t="n">
         <v>1</v>
@@ -84978,10 +85002,10 @@
         <v>2431</v>
       </c>
       <c r="E2432" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
       <c r="F2432" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
       <c r="G2432" t="n">
         <v>1</v>
@@ -85007,13 +85031,13 @@
         <v>2432</v>
       </c>
       <c r="E2433" t="s">
-        <v>4541</v>
+        <v>4543</v>
       </c>
       <c r="F2433" t="s">
-        <v>4542</v>
+        <v>4544</v>
       </c>
       <c r="G2433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2433" t="s">
         <v>4</v>
@@ -85036,10 +85060,10 @@
         <v>2433</v>
       </c>
       <c r="E2434" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
       <c r="F2434" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G2434" t="n">
         <v>1</v>
@@ -85065,10 +85089,10 @@
         <v>2434</v>
       </c>
       <c r="E2435" t="s">
-        <v>4545</v>
+        <v>4547</v>
       </c>
       <c r="F2435" t="s">
-        <v>4546</v>
+        <v>4548</v>
       </c>
       <c r="G2435" t="n">
         <v>1</v>
@@ -85094,10 +85118,10 @@
         <v>2435</v>
       </c>
       <c r="E2436" t="s">
-        <v>4547</v>
+        <v>4003</v>
       </c>
       <c r="F2436" t="s">
-        <v>4548</v>
+        <v>4004</v>
       </c>
       <c r="G2436" t="n">
         <v>1</v>
@@ -85129,7 +85153,7 @@
         <v>4550</v>
       </c>
       <c r="G2437" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2437" t="s">
         <v>4</v>
@@ -85216,7 +85240,7 @@
         <v>4556</v>
       </c>
       <c r="G2440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2440" t="s">
         <v>4</v>
@@ -85245,7 +85269,7 @@
         <v>4558</v>
       </c>
       <c r="G2441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2441" t="s">
         <v>4</v>
@@ -85274,7 +85298,7 @@
         <v>4560</v>
       </c>
       <c r="G2442" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2442" t="s">
         <v>4</v>
@@ -85361,7 +85385,7 @@
         <v>4566</v>
       </c>
       <c r="G2445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2445" t="s">
         <v>4</v>
@@ -85384,10 +85408,10 @@
         <v>2445</v>
       </c>
       <c r="E2446" t="s">
-        <v>4269</v>
+        <v>4567</v>
       </c>
       <c r="F2446" t="s">
-        <v>4270</v>
+        <v>4568</v>
       </c>
       <c r="G2446" t="n">
         <v>2</v>
@@ -85413,10 +85437,10 @@
         <v>2446</v>
       </c>
       <c r="E2447" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
       <c r="F2447" t="s">
-        <v>4568</v>
+        <v>4570</v>
       </c>
       <c r="G2447" t="n">
         <v>1</v>
@@ -85442,10 +85466,10 @@
         <v>2447</v>
       </c>
       <c r="E2448" t="s">
-        <v>4569</v>
+        <v>4571</v>
       </c>
       <c r="F2448" t="s">
-        <v>4570</v>
+        <v>4572</v>
       </c>
       <c r="G2448" t="n">
         <v>1</v>
@@ -85471,10 +85495,10 @@
         <v>2448</v>
       </c>
       <c r="E2449" t="s">
-        <v>4571</v>
+        <v>4573</v>
       </c>
       <c r="F2449" t="s">
-        <v>4572</v>
+        <v>4574</v>
       </c>
       <c r="G2449" t="n">
         <v>1</v>
@@ -85500,10 +85524,10 @@
         <v>2449</v>
       </c>
       <c r="E2450" t="s">
-        <v>4573</v>
+        <v>4575</v>
       </c>
       <c r="F2450" t="s">
-        <v>4574</v>
+        <v>4576</v>
       </c>
       <c r="G2450" t="n">
         <v>1</v>
@@ -85529,13 +85553,13 @@
         <v>2450</v>
       </c>
       <c r="E2451" t="s">
-        <v>4575</v>
+        <v>4279</v>
       </c>
       <c r="F2451" t="s">
-        <v>4576</v>
+        <v>4280</v>
       </c>
       <c r="G2451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2451" t="s">
         <v>4</v>
@@ -85912,7 +85936,7 @@
         <v>4602</v>
       </c>
       <c r="G2464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2464" t="s">
         <v>4</v>
@@ -86057,7 +86081,7 @@
         <v>4612</v>
       </c>
       <c r="G2469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2469" t="s">
         <v>4</v>
@@ -86376,7 +86400,7 @@
         <v>4634</v>
       </c>
       <c r="G2480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2480" t="s">
         <v>4</v>
@@ -86521,7 +86545,7 @@
         <v>4644</v>
       </c>
       <c r="G2485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2485" t="s">
         <v>4</v>
@@ -86666,7 +86690,7 @@
         <v>4654</v>
       </c>
       <c r="G2490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2490" t="s">
         <v>4</v>
@@ -86695,7 +86719,7 @@
         <v>4656</v>
       </c>
       <c r="G2491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2491" t="s">
         <v>4</v>
@@ -86724,7 +86748,7 @@
         <v>4658</v>
       </c>
       <c r="G2492" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2492" t="s">
         <v>4</v>
@@ -86753,7 +86777,7 @@
         <v>4660</v>
       </c>
       <c r="G2493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2493" t="s">
         <v>4</v>
@@ -86811,7 +86835,7 @@
         <v>4664</v>
       </c>
       <c r="G2495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2495" t="s">
         <v>4</v>
@@ -86869,7 +86893,7 @@
         <v>4668</v>
       </c>
       <c r="G2497" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2497" t="s">
         <v>4</v>
@@ -86956,7 +86980,7 @@
         <v>4674</v>
       </c>
       <c r="G2500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2500" t="s">
         <v>4</v>
@@ -87008,10 +87032,10 @@
         <v>2501</v>
       </c>
       <c r="E2502" t="s">
-        <v>4669</v>
+        <v>4677</v>
       </c>
       <c r="F2502" t="s">
-        <v>4670</v>
+        <v>4678</v>
       </c>
       <c r="G2502" t="n">
         <v>1</v>
@@ -87037,10 +87061,10 @@
         <v>2502</v>
       </c>
       <c r="E2503" t="s">
-        <v>4677</v>
+        <v>4679</v>
       </c>
       <c r="F2503" t="s">
-        <v>4678</v>
+        <v>4680</v>
       </c>
       <c r="G2503" t="n">
         <v>1</v>
@@ -87066,13 +87090,13 @@
         <v>2503</v>
       </c>
       <c r="E2504" t="s">
-        <v>4679</v>
+        <v>4681</v>
       </c>
       <c r="F2504" t="s">
-        <v>4680</v>
+        <v>4682</v>
       </c>
       <c r="G2504" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2504" t="s">
         <v>4</v>
@@ -87095,10 +87119,10 @@
         <v>2504</v>
       </c>
       <c r="E2505" t="s">
-        <v>4681</v>
+        <v>4683</v>
       </c>
       <c r="F2505" t="s">
-        <v>4682</v>
+        <v>4684</v>
       </c>
       <c r="G2505" t="n">
         <v>1</v>
@@ -87124,10 +87148,10 @@
         <v>2505</v>
       </c>
       <c r="E2506" t="s">
-        <v>4683</v>
+        <v>4677</v>
       </c>
       <c r="F2506" t="s">
-        <v>4684</v>
+        <v>4678</v>
       </c>
       <c r="G2506" t="n">
         <v>1</v>
@@ -87188,7 +87212,7 @@
         <v>4688</v>
       </c>
       <c r="G2508" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2508" t="s">
         <v>4</v>
@@ -87298,13 +87322,13 @@
         <v>2511</v>
       </c>
       <c r="E2512" t="s">
-        <v>3643</v>
+        <v>4695</v>
       </c>
       <c r="F2512" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
       <c r="G2512" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H2512" t="s">
         <v>4</v>
@@ -87327,10 +87351,10 @@
         <v>2512</v>
       </c>
       <c r="E2513" t="s">
-        <v>3643</v>
+        <v>4697</v>
       </c>
       <c r="F2513" t="s">
-        <v>4696</v>
+        <v>4698</v>
       </c>
       <c r="G2513" t="n">
         <v>1</v>
@@ -87356,10 +87380,10 @@
         <v>2513</v>
       </c>
       <c r="E2514" t="s">
-        <v>4697</v>
+        <v>4699</v>
       </c>
       <c r="F2514" t="s">
-        <v>4698</v>
+        <v>4700</v>
       </c>
       <c r="G2514" t="n">
         <v>1</v>
@@ -87368,6 +87392,122 @@
         <v>4</v>
       </c>
       <c r="I2514" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:9">
+      <c r="A2515" s="1" t="n">
+        <v>2513</v>
+      </c>
+      <c r="B2515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2515" t="n">
+        <v>2514</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>4701</v>
+      </c>
+      <c r="F2515" t="s">
+        <v>4702</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2515" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:9">
+      <c r="A2516" s="1" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2516" t="n">
+        <v>2515</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>3641</v>
+      </c>
+      <c r="F2516" t="s">
+        <v>4703</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2516" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:9">
+      <c r="A2517" s="1" t="n">
+        <v>2515</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2517" t="n">
+        <v>2516</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>3641</v>
+      </c>
+      <c r="F2517" t="s">
+        <v>4704</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2517" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2517" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:9">
+      <c r="A2518" s="1" t="n">
+        <v>2516</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2518" t="n">
+        <v>2517</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>4705</v>
+      </c>
+      <c r="F2518" t="s">
+        <v>4706</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2518" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2518" t="n">
         <v>3</v>
       </c>
     </row>
